--- a/prot/356379915/Переход трубопровода через р. Енисей/Cрезы КД/1066.xlsx
+++ b/prot/356379915/Переход трубопровода через р. Енисей/Cрезы КД/1066.xlsx
@@ -2526,7 +2526,7 @@
         <v>0.1</v>
       </c>
       <c r="O47" s="65" t="n">
-        <v>0.0804309051452769</v>
+        <v>0.0654309051452769</v>
       </c>
       <c r="P47" s="66" t="n"/>
       <c r="Q47" s="66" t="n"/>
@@ -2545,7 +2545,7 @@
         <v>0.15</v>
       </c>
       <c r="O48" s="65" t="n">
-        <v>0.07814635771791534</v>
+        <v>0.1081463577179153</v>
       </c>
       <c r="P48" s="68">
         <f>SLOPE(O47:O49,N47:N49)</f>
@@ -2573,7 +2573,7 @@
         <v>0.2</v>
       </c>
       <c r="O49" s="65" t="n">
-        <v>0.1358618102905538</v>
+        <v>0.1208618102905538</v>
       </c>
       <c r="P49" s="71" t="n"/>
       <c r="Q49" s="71" t="n"/>
@@ -2859,26 +2859,26 @@
     </row>
     <row r="66">
       <c r="F66" s="60" t="n">
-        <v>0.002172934354406964</v>
+        <v>0.001823321080769783</v>
       </c>
       <c r="G66" s="100" t="n">
         <v>0.03620605733560987</v>
       </c>
       <c r="H66" s="100" t="n"/>
       <c r="J66" s="60" t="n">
-        <v>0.002172934354406964</v>
+        <v>0.001823321080769783</v>
       </c>
       <c r="K66" s="100" t="n">
         <v>0.03620605733560987</v>
       </c>
       <c r="L66" s="57" t="n">
-        <v>0.002053902369356373</v>
+        <v>0.002878223585278105</v>
       </c>
       <c r="M66" s="60" t="n">
         <v>0.03620605733560987</v>
       </c>
       <c r="N66" s="100" t="n">
-        <v>0.003552741131786397</v>
+        <v>0.003243226467093254</v>
       </c>
       <c r="O66" s="57" t="n">
         <v>0.03620605733560987</v>
@@ -2886,26 +2886,26 @@
     </row>
     <row r="67">
       <c r="F67" s="60" t="n">
-        <v>0.004407915094964298</v>
+        <v>0.003669391464428594</v>
       </c>
       <c r="G67" s="100" t="n">
         <v>0.07241211467121973</v>
       </c>
       <c r="H67" s="100" t="n"/>
       <c r="J67" s="60" t="n">
-        <v>0.004407915094964298</v>
+        <v>0.003669391464428594</v>
       </c>
       <c r="K67" s="100" t="n">
         <v>0.07241211467121973</v>
       </c>
       <c r="L67" s="57" t="n">
-        <v>0.004082332613421018</v>
+        <v>0.006019065244167011</v>
       </c>
       <c r="M67" s="60" t="n">
         <v>0.07241211467121973</v>
       </c>
       <c r="N67" s="100" t="n">
-        <v>0.007173385490772202</v>
+        <v>0.006485139754120878</v>
       </c>
       <c r="O67" s="57" t="n">
         <v>0.07241211467121973</v>
@@ -2913,26 +2913,26 @@
     </row>
     <row r="68">
       <c r="F68" s="60" t="n">
-        <v>0.006333974743913806</v>
+        <v>0.005239626550557947</v>
       </c>
       <c r="G68" s="100" t="n">
         <v>0.1086181720068296</v>
       </c>
       <c r="H68" s="100" t="n"/>
       <c r="J68" s="60" t="n">
-        <v>0.006333974743913806</v>
+        <v>0.005239626550557947</v>
       </c>
       <c r="K68" s="100" t="n">
         <v>0.1086181720068296</v>
       </c>
       <c r="L68" s="57" t="n">
-        <v>0.006366757716667535</v>
+        <v>0.008617926650469869</v>
       </c>
       <c r="M68" s="60" t="n">
         <v>0.1086181720068296</v>
       </c>
       <c r="N68" s="100" t="n">
-        <v>0.01118521148471111</v>
+        <v>0.009848850492235817</v>
       </c>
       <c r="O68" s="57" t="n">
         <v>0.1086181720068296</v>
@@ -2940,26 +2940,26 @@
     </row>
     <row r="69">
       <c r="F69" s="60" t="n">
-        <v>0.008806217369539104</v>
+        <v>0.00684327467530556</v>
       </c>
       <c r="G69" s="100" t="n">
         <v>0.1448242293424395</v>
       </c>
       <c r="H69" s="100" t="n"/>
       <c r="J69" s="60" t="n">
-        <v>0.008806217369539104</v>
+        <v>0.00684327467530556</v>
       </c>
       <c r="K69" s="100" t="n">
         <v>0.1448242293424395</v>
       </c>
       <c r="L69" s="57" t="n">
-        <v>0.008290327711614564</v>
+        <v>0.01179960042594927</v>
       </c>
       <c r="M69" s="60" t="n">
         <v>0.1448242293424395</v>
       </c>
       <c r="N69" s="100" t="n">
-        <v>0.0154465080307522</v>
+        <v>0.01378839068913014</v>
       </c>
       <c r="O69" s="57" t="n">
         <v>0.1448242293424395</v>
@@ -2967,26 +2967,26 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="F70" s="60" t="n">
-        <v>0.01062872072611088</v>
+        <v>0.009009968046556601</v>
       </c>
       <c r="G70" s="100" t="n">
         <v>0.1810302866780493</v>
       </c>
       <c r="H70" s="100" t="n"/>
       <c r="J70" s="60" t="n">
-        <v>0.01062872072611088</v>
+        <v>0.009009968046556601</v>
       </c>
       <c r="K70" s="100" t="n">
         <v>0.1810302866780493</v>
       </c>
       <c r="L70" s="57" t="n">
-        <v>0.01063142829363518</v>
+        <v>0.01513285241841208</v>
       </c>
       <c r="M70" s="60" t="n">
         <v>0.1810302866780493</v>
       </c>
       <c r="N70" s="100" t="n">
-        <v>0.01888004947566138</v>
+        <v>0.0166724624082732</v>
       </c>
       <c r="O70" s="57" t="n">
         <v>0.1810302866780493</v>
@@ -2994,26 +2994,26 @@
     </row>
     <row r="71">
       <c r="F71" s="60" t="n">
-        <v>0.01363665961525979</v>
+        <v>0.01104976296262978</v>
       </c>
       <c r="G71" s="100" t="n">
         <v>0.2172363440136592</v>
       </c>
       <c r="H71" s="100" t="n"/>
       <c r="J71" s="60" t="n">
-        <v>0.01363665961525979</v>
+        <v>0.01104976296262978</v>
       </c>
       <c r="K71" s="100" t="n">
         <v>0.2172363440136592</v>
       </c>
       <c r="L71" s="57" t="n">
-        <v>0.01255903137508673</v>
+        <v>0.01833567664277289</v>
       </c>
       <c r="M71" s="60" t="n">
         <v>0.2172363440136592</v>
       </c>
       <c r="N71" s="100" t="n">
-        <v>0.02128987596268384</v>
+        <v>0.01985134305215051</v>
       </c>
       <c r="O71" s="57" t="n">
         <v>0.2172363440136592</v>
@@ -3021,26 +3021,26 @@
     </row>
     <row r="72">
       <c r="F72" s="60" t="n">
-        <v>0.01536958896365674</v>
+        <v>0.01194836042674637</v>
       </c>
       <c r="G72" s="100" t="n">
         <v>0.253442401349269</v>
       </c>
       <c r="H72" s="100" t="n"/>
       <c r="J72" s="60" t="n">
-        <v>0.01536958896365674</v>
+        <v>0.01194836042674637</v>
       </c>
       <c r="K72" s="100" t="n">
         <v>0.253442401349269</v>
       </c>
       <c r="L72" s="57" t="n">
-        <v>0.01429410764287497</v>
+        <v>0.02068220144367119</v>
       </c>
       <c r="M72" s="60" t="n">
         <v>0.253442401349269</v>
       </c>
       <c r="N72" s="100" t="n">
-        <v>0.02653023371394245</v>
+        <v>0.02282668078585495</v>
       </c>
       <c r="O72" s="57" t="n">
         <v>0.253442401349269</v>
@@ -3051,26 +3051,26 @@
       <c r="B73" s="59" t="n"/>
       <c r="D73" s="101" t="n"/>
       <c r="F73" s="60" t="n">
-        <v>0.01686088696317232</v>
+        <v>0.0138742310994456</v>
       </c>
       <c r="G73" s="100" t="n">
         <v>0.2896484586848789</v>
       </c>
       <c r="H73" s="100" t="n"/>
       <c r="J73" s="60" t="n">
-        <v>0.01686088696317232</v>
+        <v>0.0138742310994456</v>
       </c>
       <c r="K73" s="100" t="n">
         <v>0.2896484586848789</v>
       </c>
       <c r="L73" s="57" t="n">
-        <v>0.01684896180963533</v>
+        <v>0.02330074451768313</v>
       </c>
       <c r="M73" s="60" t="n">
         <v>0.2896484586848789</v>
       </c>
       <c r="N73" s="100" t="n">
-        <v>0.02953495151751624</v>
+        <v>0.02675210429704374</v>
       </c>
       <c r="O73" s="57" t="n">
         <v>0.2896484586848789</v>
@@ -3078,26 +3078,26 @@
     </row>
     <row r="74">
       <c r="F74" s="60" t="n">
-        <v>0.0194738263235893</v>
+        <v>0.01636190291614651</v>
       </c>
       <c r="G74" s="100" t="n">
         <v>0.3258545160204888</v>
       </c>
       <c r="H74" s="100" t="n"/>
       <c r="J74" s="60" t="n">
-        <v>0.0194738263235893</v>
+        <v>0.01636190291614651</v>
       </c>
       <c r="K74" s="100" t="n">
         <v>0.3258545160204888</v>
       </c>
       <c r="L74" s="57" t="n">
-        <v>0.01863795407595773</v>
+        <v>0.02655174476449603</v>
       </c>
       <c r="M74" s="60" t="n">
         <v>0.3258545160204888</v>
       </c>
       <c r="N74" s="100" t="n">
-        <v>0.03452546967739446</v>
+        <v>0.02911221716999985</v>
       </c>
       <c r="O74" s="57" t="n">
         <v>0.3258545160204888</v>
@@ -3105,26 +3105,26 @@
     </row>
     <row r="75">
       <c r="F75" s="60" t="n">
-        <v>0.02167909471021547</v>
+        <v>0.01768936028550702</v>
       </c>
       <c r="G75" s="100" t="n">
         <v>0.3620605733560986</v>
       </c>
       <c r="H75" s="100" t="n"/>
       <c r="J75" s="60" t="n">
-        <v>0.02167909471021547</v>
+        <v>0.01768936028550702</v>
       </c>
       <c r="K75" s="100" t="n">
         <v>0.3620605733560986</v>
       </c>
       <c r="L75" s="57" t="n">
-        <v>0.02154517264258701</v>
+        <v>0.02915824383289495</v>
       </c>
       <c r="M75" s="60" t="n">
         <v>0.3620605733560986</v>
       </c>
       <c r="N75" s="100" t="n">
-        <v>0.03583371391881782</v>
+        <v>0.03181178708992168</v>
       </c>
       <c r="O75" s="57" t="n">
         <v>0.3620605733560986</v>
@@ -3134,26 +3134,26 @@
       <c r="A76" s="101" t="n"/>
       <c r="C76" s="102" t="n"/>
       <c r="F76" s="60" t="n">
-        <v>0.02449106314733311</v>
+        <v>0.01953649704273875</v>
       </c>
       <c r="G76" s="100" t="n">
         <v>0.3982666306917085</v>
       </c>
       <c r="H76" s="100" t="n"/>
       <c r="J76" s="60" t="n">
-        <v>0.02449106314733311</v>
+        <v>0.01953649704273875</v>
       </c>
       <c r="K76" s="100" t="n">
         <v>0.3982666306917085</v>
       </c>
       <c r="L76" s="57" t="n">
-        <v>0.02262328034555942</v>
+        <v>0.03208053085334266</v>
       </c>
       <c r="M76" s="60" t="n">
         <v>0.3982666306917085</v>
       </c>
       <c r="N76" s="100" t="n">
-        <v>0.04132501837929165</v>
+        <v>0.03537575778804541</v>
       </c>
       <c r="O76" s="57" t="n">
         <v>0.3982666306917085</v>
@@ -3161,25 +3161,25 @@
     </row>
     <row r="77" ht="15" customHeight="1">
       <c r="F77" t="n">
-        <v>0.02749946741010212</v>
+        <v>0.02059092450883228</v>
       </c>
       <c r="G77" t="n">
         <v>0.4344726880273184</v>
       </c>
       <c r="J77" t="n">
-        <v>0.02749946741010212</v>
+        <v>0.02059092450883228</v>
       </c>
       <c r="K77" t="n">
         <v>0.4344726880273184</v>
       </c>
       <c r="L77" t="n">
-        <v>0.02613648822091916</v>
+        <v>0.03426646424741941</v>
       </c>
       <c r="M77" t="n">
         <v>0.4344726880273184</v>
       </c>
       <c r="N77" t="n">
-        <v>0.04549298997491061</v>
+        <v>0.04070710707158725</v>
       </c>
       <c r="O77" t="n">
         <v>0.4344726880273184</v>
@@ -3188,25 +3188,25 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" s="101" t="n"/>
       <c r="F78" t="n">
-        <v>0.02959085861058813</v>
+        <v>0.02309768213881752</v>
       </c>
       <c r="G78" t="n">
         <v>0.4706787453629283</v>
       </c>
       <c r="J78" t="n">
-        <v>0.02959085861058813</v>
+        <v>0.02309768213881752</v>
       </c>
       <c r="K78" t="n">
         <v>0.4706787453629283</v>
       </c>
       <c r="L78" t="n">
-        <v>0.02697517027178237</v>
+        <v>0.03725391318367974</v>
       </c>
       <c r="M78" t="n">
         <v>0.4706787453629283</v>
       </c>
       <c r="N78" t="n">
-        <v>0.04755953050603838</v>
+        <v>0.04277269185961675</v>
       </c>
       <c r="O78" t="n">
         <v>0.4706787453629283</v>
@@ -3216,25 +3216,25 @@
       <c r="A79" s="101" t="n"/>
       <c r="D79" s="57" t="n"/>
       <c r="F79" t="n">
-        <v>0.0310497932800982</v>
+        <v>0.02503235924529768</v>
       </c>
       <c r="G79" t="n">
         <v>0.5068848026985381</v>
       </c>
       <c r="J79" t="n">
-        <v>0.0310497932800982</v>
+        <v>0.02503235924529768</v>
       </c>
       <c r="K79" t="n">
         <v>0.5068848026985381</v>
       </c>
       <c r="L79" t="n">
-        <v>0.03125732139385154</v>
+        <v>0.04326518223053831</v>
       </c>
       <c r="M79" t="n">
         <v>0.5068848026985381</v>
       </c>
       <c r="N79" t="n">
-        <v>0.05327521226319828</v>
+        <v>0.04544766391078052</v>
       </c>
       <c r="O79" t="n">
         <v>0.5068848026985381</v>
@@ -3242,25 +3242,25 @@
     </row>
     <row r="80" ht="15" customHeight="1">
       <c r="F80" t="n">
-        <v>0.03367235746980814</v>
+        <v>0.02826704973570452</v>
       </c>
       <c r="G80" t="n">
         <v>0.543090860034148</v>
       </c>
       <c r="J80" t="n">
-        <v>0.03367235746980814</v>
+        <v>0.02826704973570452</v>
       </c>
       <c r="K80" t="n">
         <v>0.543090860034148</v>
       </c>
       <c r="L80" t="n">
-        <v>0.03337433816374129</v>
+        <v>0.0441488061105238</v>
       </c>
       <c r="M80" t="n">
         <v>0.543090860034148</v>
       </c>
       <c r="N80" t="n">
-        <v>0.05838403468184444</v>
+        <v>0.04892832995515518</v>
       </c>
       <c r="O80" t="n">
         <v>0.543090860034148</v>
@@ -3268,25 +3268,25 @@
     </row>
     <row r="81" ht="15" customHeight="1">
       <c r="F81" t="n">
-        <v>0.03707457422103143</v>
+        <v>0.02922892031333745</v>
       </c>
       <c r="G81" t="n">
         <v>0.5792969173697579</v>
       </c>
       <c r="J81" t="n">
-        <v>0.03707457422103143</v>
+        <v>0.02922892031333745</v>
       </c>
       <c r="K81" t="n">
         <v>0.5792969173697579</v>
       </c>
       <c r="L81" t="n">
-        <v>0.03480132909887181</v>
+        <v>0.04991253534433701</v>
       </c>
       <c r="M81" t="n">
         <v>0.5792969173697579</v>
       </c>
       <c r="N81" t="n">
-        <v>0.06132600660470273</v>
+        <v>0.05162504278080398</v>
       </c>
       <c r="O81" t="n">
         <v>0.5792969173697579</v>
@@ -3296,25 +3296,25 @@
       <c r="A82" s="101" t="n"/>
       <c r="B82" s="101" t="n"/>
       <c r="F82" t="n">
-        <v>0.03936643238268588</v>
+        <v>0.03141982744755951</v>
       </c>
       <c r="G82" t="n">
         <v>0.6155029747053677</v>
       </c>
       <c r="J82" t="n">
-        <v>0.03936643238268588</v>
+        <v>0.03141982744755951</v>
       </c>
       <c r="K82" t="n">
         <v>0.6155029747053677</v>
       </c>
       <c r="L82" t="n">
-        <v>0.03706633093231552</v>
+        <v>0.05040371995365376</v>
       </c>
       <c r="M82" t="n">
         <v>0.6155029747053677</v>
       </c>
       <c r="N82" t="n">
-        <v>0.06299896674748691</v>
+        <v>0.05825542500726694</v>
       </c>
       <c r="O82" t="n">
         <v>0.6155029747053677</v>
@@ -3322,25 +3322,25 @@
     </row>
     <row r="83" ht="15" customHeight="1">
       <c r="F83" t="n">
-        <v>0.03933981198512535</v>
+        <v>0.03319657407991689</v>
       </c>
       <c r="G83" t="n">
         <v>0.6517090320409776</v>
       </c>
       <c r="J83" t="n">
-        <v>0.03933981198512535</v>
+        <v>0.03319657407991689</v>
       </c>
       <c r="K83" t="n">
         <v>0.6517090320409776</v>
       </c>
       <c r="L83" t="n">
-        <v>0.03807712227038464</v>
+        <v>0.05246650769122779</v>
       </c>
       <c r="M83" t="n">
         <v>0.6517090320409776</v>
       </c>
       <c r="N83" t="n">
-        <v>0.06905962243803539</v>
+        <v>0.06031149011679898</v>
       </c>
       <c r="O83" t="n">
         <v>0.6517090320409776</v>
@@ -3348,25 +3348,25 @@
     </row>
     <row r="84" ht="15" customHeight="1">
       <c r="F84" t="n">
-        <v>0.04159027423179244</v>
+        <v>0.0350880092428139</v>
       </c>
       <c r="G84" t="n">
         <v>0.6879150893765874</v>
       </c>
       <c r="J84" t="n">
-        <v>0.04159027423179244</v>
+        <v>0.0350880092428139</v>
       </c>
       <c r="K84" t="n">
         <v>0.6879150893765874</v>
       </c>
       <c r="L84" t="n">
-        <v>0.04325156229464445</v>
+        <v>0.05660888636311789</v>
       </c>
       <c r="M84" t="n">
         <v>0.6879150893765874</v>
       </c>
       <c r="N84" t="n">
-        <v>0.07022444381565893</v>
+        <v>0.06183767925503141</v>
       </c>
       <c r="O84" t="n">
         <v>0.6879150893765874</v>
@@ -3377,25 +3377,25 @@
       <c r="B85" s="57" t="n"/>
       <c r="D85" s="101" t="n"/>
       <c r="F85" t="n">
-        <v>0.04312282119068212</v>
+        <v>0.03489186806367829</v>
       </c>
       <c r="G85" t="n">
         <v>0.7241211467121973</v>
       </c>
       <c r="J85" t="n">
-        <v>0.04312282119068212</v>
+        <v>0.03489186806367829</v>
       </c>
       <c r="K85" t="n">
         <v>0.7241211467121973</v>
       </c>
       <c r="L85" t="n">
-        <v>0.04452498905191078</v>
+        <v>0.0614259372039601</v>
       </c>
       <c r="M85" t="n">
         <v>0.7241211467121973</v>
       </c>
       <c r="N85" t="n">
-        <v>0.07553254994974615</v>
+        <v>0.06532940778404223</v>
       </c>
       <c r="O85" t="n">
         <v>0.7241211467121973</v>
@@ -3406,25 +3406,25 @@
       <c r="B86" s="57" t="n"/>
       <c r="D86" s="101" t="n"/>
       <c r="F86" t="n">
-        <v>0.04620435477715147</v>
+        <v>0.03841919967949685</v>
       </c>
       <c r="G86" t="n">
         <v>0.7603272040478072</v>
       </c>
       <c r="J86" t="n">
-        <v>0.04620435477715147</v>
+        <v>0.03841919967949685</v>
       </c>
       <c r="K86" t="n">
         <v>0.7603272040478072</v>
       </c>
       <c r="L86" t="n">
-        <v>0.04577247355814273</v>
+        <v>0.06060731599168132</v>
       </c>
       <c r="M86" t="n">
         <v>0.7603272040478072</v>
       </c>
       <c r="N86" t="n">
-        <v>0.07745843537638479</v>
+        <v>0.07197929122894341</v>
       </c>
       <c r="O86" t="n">
         <v>0.7603272040478072</v>
@@ -3432,25 +3432,25 @@
     </row>
     <row r="87" ht="15" customHeight="1">
       <c r="F87" t="n">
-        <v>0.04731447704973789</v>
+        <v>0.04088641285608659</v>
       </c>
       <c r="G87" t="n">
         <v>0.7965332613834171</v>
       </c>
       <c r="J87" t="n">
-        <v>0.04731447704973789</v>
+        <v>0.04088641285608659</v>
       </c>
       <c r="K87" t="n">
         <v>0.7965332613834171</v>
       </c>
       <c r="L87" t="n">
-        <v>0.04887879098488415</v>
+        <v>0.06783723341778747</v>
       </c>
       <c r="M87" t="n">
         <v>0.7965332613834171</v>
       </c>
       <c r="N87" t="n">
-        <v>0.07839417915280129</v>
+        <v>0.07378128246878687</v>
       </c>
       <c r="O87" t="n">
         <v>0.7965332613834171</v>
@@ -3461,25 +3461,25 @@
       <c r="C88" s="59" t="n"/>
       <c r="D88" s="59" t="n"/>
       <c r="F88" t="n">
-        <v>0.04993666931594624</v>
+        <v>0.04047433966155457</v>
       </c>
       <c r="G88" t="n">
         <v>0.832739318719027</v>
       </c>
       <c r="J88" t="n">
-        <v>0.04993666931594624</v>
+        <v>0.04047433966155457</v>
       </c>
       <c r="K88" t="n">
         <v>0.832739318719027</v>
       </c>
       <c r="L88" t="n">
-        <v>0.05001774731238839</v>
+        <v>0.06981315516726871</v>
       </c>
       <c r="M88" t="n">
         <v>0.832739318719027</v>
       </c>
       <c r="N88" t="n">
-        <v>0.08068025807332242</v>
+        <v>0.07628407283106442</v>
       </c>
       <c r="O88" t="n">
         <v>0.832739318719027</v>
@@ -3489,25 +3489,25 @@
       <c r="A89" s="57" t="n"/>
       <c r="B89" s="57" t="n"/>
       <c r="F89" t="n">
-        <v>0.05055150258293003</v>
+        <v>0.04235834044913882</v>
       </c>
       <c r="G89" t="n">
         <v>0.8689453760546368</v>
       </c>
       <c r="J89" t="n">
-        <v>0.05055150258293003</v>
+        <v>0.04235834044913882</v>
       </c>
       <c r="K89" t="n">
         <v>0.8689453760546368</v>
       </c>
       <c r="L89" t="n">
-        <v>0.05211897710228239</v>
+        <v>0.06880902752499611</v>
       </c>
       <c r="M89" t="n">
         <v>0.8689453760546368</v>
       </c>
       <c r="N89" t="n">
-        <v>0.08730626806295361</v>
+        <v>0.07670739966998001</v>
       </c>
       <c r="O89" t="n">
         <v>0.8689453760546368</v>
@@ -3515,25 +3515,25 @@
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.05072810335854</v>
+        <v>0.04217776069005251</v>
       </c>
       <c r="G90" t="n">
         <v>0.9051514333902466</v>
       </c>
       <c r="J90" t="n">
-        <v>0.05072810335854</v>
+        <v>0.04217776069005251</v>
       </c>
       <c r="K90" t="n">
         <v>0.9051514333902466</v>
       </c>
       <c r="L90" t="n">
-        <v>0.05074691174316833</v>
+        <v>0.07085701589756599</v>
       </c>
       <c r="M90" t="n">
         <v>0.9051514333902466</v>
       </c>
       <c r="N90" t="n">
-        <v>0.08664691052803419</v>
+        <v>0.07620436120415873</v>
       </c>
       <c r="O90" t="n">
         <v>0.9051514333902466</v>
@@ -3541,25 +3541,25 @@
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.05393334550689773</v>
+        <v>0.04435764574996952</v>
       </c>
       <c r="G91" t="n">
         <v>0.9413574907258565</v>
       </c>
       <c r="J91" t="n">
-        <v>0.05393334550689773</v>
+        <v>0.04435764574996952</v>
       </c>
       <c r="K91" t="n">
         <v>0.9413574907258565</v>
       </c>
       <c r="L91" t="n">
-        <v>0.05035777500781321</v>
+        <v>0.07405546408719299</v>
       </c>
       <c r="M91" t="n">
         <v>0.9413574907258565</v>
       </c>
       <c r="N91" t="n">
-        <v>0.09261512278894586</v>
+        <v>0.07958569022086466</v>
       </c>
       <c r="O91" t="n">
         <v>0.9413574907258565</v>
@@ -3567,25 +3567,25 @@
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.05452819833542415</v>
+        <v>0.04427345731098</v>
       </c>
       <c r="G92" t="n">
         <v>0.9775635480614664</v>
       </c>
       <c r="J92" t="n">
-        <v>0.05452819833542415</v>
+        <v>0.04427345731098</v>
       </c>
       <c r="K92" t="n">
         <v>0.9775635480614664</v>
       </c>
       <c r="L92" t="n">
-        <v>0.05539193772972986</v>
+        <v>0.07776457666887501</v>
       </c>
       <c r="M92" t="n">
         <v>0.9775635480614664</v>
       </c>
       <c r="N92" t="n">
-        <v>0.09170593969476903</v>
+        <v>0.08046746209039234</v>
       </c>
       <c r="O92" t="n">
         <v>0.9775635480614664</v>
@@ -3593,25 +3593,25 @@
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.05759889326311323</v>
+        <v>0.04594470080189274</v>
       </c>
       <c r="G93" t="n">
         <v>1.013769605397076</v>
       </c>
       <c r="J93" t="n">
-        <v>0.05759889326311323</v>
+        <v>0.04594470080189274</v>
       </c>
       <c r="K93" t="n">
         <v>1.013769605397076</v>
       </c>
       <c r="L93" t="n">
-        <v>0.05336556974898684</v>
+        <v>0.07980744543238869</v>
       </c>
       <c r="M93" t="n">
         <v>1.013769605397076</v>
       </c>
       <c r="N93" t="n">
-        <v>0.09807904404442537</v>
+        <v>0.08525051246418415</v>
       </c>
       <c r="O93" t="n">
         <v>1.013769605397076</v>
@@ -3619,25 +3619,25 @@
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.05939314650735072</v>
+        <v>0.04838728675007081</v>
       </c>
       <c r="G94" t="n">
         <v>1.049975662732686</v>
       </c>
       <c r="J94" t="n">
-        <v>0.05939314650735072</v>
+        <v>0.04838728675007081</v>
       </c>
       <c r="K94" t="n">
         <v>1.049975662732686</v>
       </c>
       <c r="L94" t="n">
-        <v>0.05732902483129468</v>
+        <v>0.07836365034730748</v>
       </c>
       <c r="M94" t="n">
         <v>1.049975662732686</v>
       </c>
       <c r="N94" t="n">
-        <v>0.09915105926390158</v>
+        <v>0.088291212544042</v>
       </c>
       <c r="O94" t="n">
         <v>1.049975662732686</v>
@@ -3645,25 +3645,25 @@
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.06138887481773031</v>
+        <v>0.04763356857250342</v>
       </c>
       <c r="G95" t="n">
         <v>1.086181720068296</v>
       </c>
       <c r="J95" t="n">
-        <v>0.06138887481773031</v>
+        <v>0.04763356857250342</v>
       </c>
       <c r="K95" t="n">
         <v>1.086181720068296</v>
       </c>
       <c r="L95" t="n">
-        <v>0.05782207928634478</v>
+        <v>0.07943072408770237</v>
       </c>
       <c r="M95" t="n">
         <v>1.086181720068296</v>
       </c>
       <c r="N95" t="n">
-        <v>0.104356417954113</v>
+        <v>0.08947258521740296</v>
       </c>
       <c r="O95" t="n">
         <v>1.086181720068296</v>
@@ -3671,25 +3671,25 @@
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.05958612802323487</v>
+        <v>0.0506016453173133</v>
       </c>
       <c r="G96" t="n">
         <v>1.122387777403906</v>
       </c>
       <c r="J96" t="n">
-        <v>0.05958612802323487</v>
+        <v>0.0506016453173133</v>
       </c>
       <c r="K96" t="n">
         <v>1.122387777403906</v>
       </c>
       <c r="L96" t="n">
-        <v>0.05640272809546692</v>
+        <v>0.08227137696741366</v>
       </c>
       <c r="M96" t="n">
         <v>1.122387777403906</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1012024173672529</v>
+        <v>0.0912455186265361</v>
       </c>
       <c r="O96" t="n">
         <v>1.122387777403906</v>
@@ -3697,25 +3697,25 @@
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.06194618993911347</v>
+        <v>0.0505638725424644</v>
       </c>
       <c r="G97" t="n">
         <v>1.158593834739516</v>
       </c>
       <c r="J97" t="n">
-        <v>0.06194618993911347</v>
+        <v>0.0505638725424644</v>
       </c>
       <c r="K97" t="n">
         <v>1.158593834739516</v>
       </c>
       <c r="L97" t="n">
-        <v>0.05877432439013051</v>
+        <v>0.08227336237169759</v>
       </c>
       <c r="M97" t="n">
         <v>1.158593834739516</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1088621271008164</v>
+        <v>0.09588971853881298</v>
       </c>
       <c r="O97" t="n">
         <v>1.158593834739516</v>
@@ -3723,25 +3723,25 @@
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.0645738197241595</v>
+        <v>0.05134196152347657</v>
       </c>
       <c r="G98" t="n">
         <v>1.194799892075125</v>
       </c>
       <c r="J98" t="n">
-        <v>0.0645738197241595</v>
+        <v>0.05134196152347657</v>
       </c>
       <c r="K98" t="n">
         <v>1.194799892075125</v>
       </c>
       <c r="L98" t="n">
-        <v>0.05950912687957781</v>
+        <v>0.08852906720117526</v>
       </c>
       <c r="M98" t="n">
         <v>1.194799892075125</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1053886235844912</v>
+        <v>0.09260294252890038</v>
       </c>
       <c r="O98" t="n">
         <v>1.194799892075125</v>
@@ -3749,25 +3749,25 @@
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.06334291354092539</v>
+        <v>0.05232946259318938</v>
       </c>
       <c r="G99" t="n">
         <v>1.231005949410735</v>
       </c>
       <c r="J99" t="n">
-        <v>0.06334291354092539</v>
+        <v>0.05232946259318938</v>
       </c>
       <c r="K99" t="n">
         <v>1.231005949410735</v>
       </c>
       <c r="L99" t="n">
-        <v>0.06151272022969691</v>
+        <v>0.08838014261202383</v>
       </c>
       <c r="M99" t="n">
         <v>1.231005949410735</v>
       </c>
       <c r="N99" t="n">
-        <v>0.108808717436605</v>
+        <v>0.09486750403514767</v>
       </c>
       <c r="O99" t="n">
         <v>1.231005949410735</v>
@@ -3775,25 +3775,25 @@
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.06291769390524277</v>
+        <v>0.05378102780750887</v>
       </c>
       <c r="G100" t="n">
         <v>1.267212006746345</v>
       </c>
       <c r="J100" t="n">
-        <v>0.06291769390524277</v>
+        <v>0.05378102780750887</v>
       </c>
       <c r="K100" t="n">
         <v>1.267212006746345</v>
       </c>
       <c r="L100" t="n">
-        <v>0.06320484281075432</v>
+        <v>0.08602923193158324</v>
       </c>
       <c r="M100" t="n">
         <v>1.267212006746345</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1138530742623635</v>
+        <v>0.1005516571722776</v>
       </c>
       <c r="O100" t="n">
         <v>1.267212006746345</v>
@@ -3801,25 +3801,25 @@
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.06412300824419719</v>
+        <v>0.05263614177746721</v>
       </c>
       <c r="G101" t="n">
         <v>1.303418064081955</v>
       </c>
       <c r="J101" t="n">
-        <v>0.06412300824419719</v>
+        <v>0.05263614177746721</v>
       </c>
       <c r="K101" t="n">
         <v>1.303418064081955</v>
       </c>
       <c r="L101" t="n">
-        <v>0.06173179651563532</v>
+        <v>0.0890545372268275</v>
       </c>
       <c r="M101" t="n">
         <v>1.303418064081955</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1118549261785078</v>
+        <v>0.09688114000074269</v>
       </c>
       <c r="O101" t="n">
         <v>1.303418064081955</v>
@@ -3827,25 +3827,25 @@
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.07019951087886626</v>
+        <v>0.05711849934449467</v>
       </c>
       <c r="G102" t="n">
         <v>1.339624121417565</v>
       </c>
       <c r="J102" t="n">
-        <v>0.07019951087886626</v>
+        <v>0.05711849934449467</v>
       </c>
       <c r="K102" t="n">
         <v>1.339624121417565</v>
       </c>
       <c r="L102" t="n">
-        <v>0.06621099344580289</v>
+        <v>0.0863332639913606</v>
       </c>
       <c r="M102" t="n">
         <v>1.339624121417565</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1119036163289996</v>
+        <v>0.1000009265242809</v>
       </c>
       <c r="O102" t="n">
         <v>1.339624121417565</v>
@@ -3853,25 +3853,25 @@
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.06625158454381358</v>
+        <v>0.05489965400863524</v>
       </c>
       <c r="G103" t="n">
         <v>1.375830178753175</v>
       </c>
       <c r="J103" t="n">
-        <v>0.06625158454381358</v>
+        <v>0.05489965400863524</v>
       </c>
       <c r="K103" t="n">
         <v>1.375830178753175</v>
       </c>
       <c r="L103" t="n">
-        <v>0.06885518534297712</v>
+        <v>0.08780492423374495</v>
       </c>
       <c r="M103" t="n">
         <v>1.375830178753175</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1198345486822931</v>
+        <v>0.1006550129522261</v>
       </c>
       <c r="O103" t="n">
         <v>1.375830178753175</v>
@@ -3879,25 +3879,25 @@
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.06893901033701123</v>
+        <v>0.05648437982214447</v>
       </c>
       <c r="G104" t="n">
         <v>1.412036236088785</v>
       </c>
       <c r="J104" t="n">
-        <v>0.06893901033701123</v>
+        <v>0.05648437982214447</v>
       </c>
       <c r="K104" t="n">
         <v>1.412036236088785</v>
       </c>
       <c r="L104" t="n">
-        <v>0.06635376517851529</v>
+        <v>0.0892323090469978</v>
       </c>
       <c r="M104" t="n">
         <v>1.412036236088785</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1167051673272964</v>
+        <v>0.1002707735154854</v>
       </c>
       <c r="O104" t="n">
         <v>1.412036236088785</v>
@@ -3905,25 +3905,25 @@
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.06715526374526416</v>
+        <v>0.05705061779465774</v>
       </c>
       <c r="G105" t="n">
         <v>1.448242293424395</v>
       </c>
       <c r="J105" t="n">
-        <v>0.06715526374526416</v>
+        <v>0.05705061779465774</v>
       </c>
       <c r="K105" t="n">
         <v>1.448242293424395</v>
       </c>
       <c r="L105" t="n">
-        <v>0.07013597902170671</v>
+        <v>0.09104358579524149</v>
       </c>
       <c r="M105" t="n">
         <v>1.448242293424395</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1195642242836377</v>
+        <v>0.1073555832424849</v>
       </c>
       <c r="O105" t="n">
         <v>1.448242293424395</v>
@@ -3931,25 +3931,25 @@
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.07330222780894526</v>
+        <v>0.05879140832354861</v>
       </c>
       <c r="G106" t="n">
         <v>1.484448350760005</v>
       </c>
       <c r="J106" t="n">
-        <v>0.07330222780894526</v>
+        <v>0.05879140832354861</v>
       </c>
       <c r="K106" t="n">
         <v>1.484448350760005</v>
       </c>
       <c r="L106" t="n">
-        <v>0.06824355272618203</v>
+        <v>0.09864626184817883</v>
       </c>
       <c r="M106" t="n">
         <v>1.484448350760005</v>
       </c>
       <c r="N106" t="n">
-        <v>0.117838119959567</v>
+        <v>0.109009345019933</v>
       </c>
       <c r="O106" t="n">
         <v>1.484448350760005</v>
@@ -3957,25 +3957,25 @@
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.06860055112830735</v>
+        <v>0.05947418299518141</v>
       </c>
       <c r="G107" t="n">
         <v>1.520654408095614</v>
       </c>
       <c r="J107" t="n">
-        <v>0.06860055112830735</v>
+        <v>0.05947418299518141</v>
       </c>
       <c r="K107" t="n">
         <v>1.520654408095614</v>
       </c>
       <c r="L107" t="n">
-        <v>0.06813502693682316</v>
+        <v>0.09522719826873224</v>
       </c>
       <c r="M107" t="n">
         <v>1.520654408095614</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1186963913621953</v>
+        <v>0.108738612773797</v>
       </c>
       <c r="O107" t="n">
         <v>1.520654408095614</v>
@@ -3983,25 +3983,25 @@
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.07070765099818142</v>
+        <v>0.06044776656390406</v>
       </c>
       <c r="G108" t="n">
         <v>1.556860465431224</v>
       </c>
       <c r="J108" t="n">
-        <v>0.07070765099818142</v>
+        <v>0.06044776656390406</v>
       </c>
       <c r="K108" t="n">
         <v>1.556860465431224</v>
       </c>
       <c r="L108" t="n">
-        <v>0.06940953145152366</v>
+        <v>0.09357895558749232</v>
       </c>
       <c r="M108" t="n">
         <v>1.556860465431224</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1235414654028116</v>
+        <v>0.1062724219066266</v>
       </c>
       <c r="O108" t="n">
         <v>1.556860465431224</v>
@@ -4009,25 +4009,25 @@
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.07576055570612893</v>
+        <v>0.05737968317832549</v>
       </c>
       <c r="G109" t="n">
         <v>1.593066522766834</v>
       </c>
       <c r="J109" t="n">
-        <v>0.07576055570612893</v>
+        <v>0.05737968317832549</v>
       </c>
       <c r="K109" t="n">
         <v>1.593066522766834</v>
       </c>
       <c r="L109" t="n">
-        <v>0.06940145141552513</v>
+        <v>0.1004864116516658</v>
       </c>
       <c r="M109" t="n">
         <v>1.593066522766834</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1266783953513846</v>
+        <v>0.1109868181888267</v>
       </c>
       <c r="O109" t="n">
         <v>1.593066522766834</v>
@@ -4035,25 +4035,25 @@
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.0714967361833734</v>
+        <v>0.05708201391933784</v>
       </c>
       <c r="G110" t="n">
         <v>1.629272580102444</v>
       </c>
       <c r="J110" t="n">
-        <v>0.0714967361833734</v>
+        <v>0.05708201391933784</v>
       </c>
       <c r="K110" t="n">
         <v>1.629272580102444</v>
       </c>
       <c r="L110" t="n">
-        <v>0.07378307267072858</v>
+        <v>0.0954484676473035</v>
       </c>
       <c r="M110" t="n">
         <v>1.629272580102444</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1189544882554511</v>
+        <v>0.105418110950284</v>
       </c>
       <c r="O110" t="n">
         <v>1.629272580102444</v>
@@ -4061,25 +4061,25 @@
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.07089609790101883</v>
+        <v>0.05799768624400842</v>
       </c>
       <c r="G111" t="n">
         <v>1.665478637438054</v>
       </c>
       <c r="J111" t="n">
-        <v>0.07089609790101883</v>
+        <v>0.05799768624400842</v>
       </c>
       <c r="K111" t="n">
         <v>1.665478637438054</v>
       </c>
       <c r="L111" t="n">
-        <v>0.07480067785408438</v>
+        <v>0.09802561223449589</v>
       </c>
       <c r="M111" t="n">
         <v>1.665478637438054</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1209496417388962</v>
+        <v>0.1138326467617079</v>
       </c>
       <c r="O111" t="n">
         <v>1.665478637438054</v>
@@ -4087,25 +4087,25 @@
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.07467535671927464</v>
+        <v>0.06057586431226919</v>
       </c>
       <c r="G112" t="n">
         <v>1.701684694773664</v>
       </c>
       <c r="J112" t="n">
-        <v>0.07467535671927464</v>
+        <v>0.06057586431226919</v>
       </c>
       <c r="K112" t="n">
         <v>1.701684694773664</v>
       </c>
       <c r="L112" t="n">
-        <v>0.07226866986441401</v>
+        <v>0.1030132316680866</v>
       </c>
       <c r="M112" t="n">
         <v>1.701684694773664</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1225400061093183</v>
+        <v>0.1127060953015518</v>
       </c>
       <c r="O112" t="n">
         <v>1.701684694773664</v>
@@ -4113,25 +4113,25 @@
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.07347895188179006</v>
+        <v>0.06189586015291842</v>
       </c>
       <c r="G113" t="n">
         <v>1.737890752109274</v>
       </c>
       <c r="J113" t="n">
-        <v>0.07347895188179006</v>
+        <v>0.06189586015291842</v>
       </c>
       <c r="K113" t="n">
         <v>1.737890752109274</v>
       </c>
       <c r="L113" t="n">
-        <v>0.07448996957835112</v>
+        <v>0.1038655963114212</v>
       </c>
       <c r="M113" t="n">
         <v>1.737890752109274</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1298237048019415</v>
+        <v>0.1083989307739084</v>
       </c>
       <c r="O113" t="n">
         <v>1.737890752109274</v>
@@ -4139,25 +4139,25 @@
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.07761755476130829</v>
+        <v>0.06385186781087139</v>
       </c>
       <c r="G114" t="n">
         <v>1.774096809444883</v>
       </c>
       <c r="J114" t="n">
-        <v>0.07761755476130829</v>
+        <v>0.06385186781087139</v>
       </c>
       <c r="K114" t="n">
         <v>1.774096809444883</v>
       </c>
       <c r="L114" t="n">
-        <v>0.07455782579511237</v>
+        <v>0.1015589919764115</v>
       </c>
       <c r="M114" t="n">
         <v>1.774096809444883</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1242333456232974</v>
+        <v>0.1102937797441889</v>
       </c>
       <c r="O114" t="n">
         <v>1.774096809444883</v>
@@ -4165,25 +4165,25 @@
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.07692922995171642</v>
+        <v>0.06324329851748997</v>
       </c>
       <c r="G115" t="n">
         <v>1.810302866780493</v>
       </c>
       <c r="J115" t="n">
-        <v>0.07692922995171642</v>
+        <v>0.06324329851748997</v>
       </c>
       <c r="K115" t="n">
         <v>1.810302866780493</v>
       </c>
       <c r="L115" t="n">
-        <v>0.07501828802131708</v>
+        <v>0.1046777913732866</v>
       </c>
       <c r="M115" t="n">
         <v>1.810302866780493</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1258144678493738</v>
+        <v>0.1101259344876818</v>
       </c>
       <c r="O115" t="n">
         <v>1.810302866780493</v>
@@ -4191,25 +4191,25 @@
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.07619935107100176</v>
+        <v>0.06262449996830602</v>
       </c>
       <c r="G116" t="n">
         <v>1.846508924116103</v>
       </c>
       <c r="J116" t="n">
-        <v>0.07619935107100176</v>
+        <v>0.06262449996830602</v>
       </c>
       <c r="K116" t="n">
         <v>1.846508924116103</v>
       </c>
       <c r="L116" t="n">
-        <v>0.07667796905668364</v>
+        <v>0.09907646831134719</v>
       </c>
       <c r="M116" t="n">
         <v>1.846508924116103</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1323627974958483</v>
+        <v>0.1117214445174732</v>
       </c>
       <c r="O116" t="n">
         <v>1.846508924116103</v>
@@ -4217,25 +4217,25 @@
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.07543523983391826</v>
+        <v>0.06354407957431348</v>
       </c>
       <c r="G117" t="n">
         <v>1.882714981451713</v>
       </c>
       <c r="J117" t="n">
-        <v>0.07543523983391826</v>
+        <v>0.06354407957431348</v>
       </c>
       <c r="K117" t="n">
         <v>1.882714981451713</v>
       </c>
       <c r="L117" t="n">
-        <v>0.07725168702465879</v>
+        <v>0.104738586634688</v>
       </c>
       <c r="M117" t="n">
         <v>1.882714981451713</v>
       </c>
       <c r="N117" t="n">
-        <v>0.132459888857945</v>
+        <v>0.1152980457694356</v>
       </c>
       <c r="O117" t="n">
         <v>1.882714981451713</v>
@@ -4243,25 +4243,25 @@
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.07875674118566782</v>
+        <v>0.06550244902956974</v>
       </c>
       <c r="G118" t="n">
         <v>1.918921038787323</v>
       </c>
       <c r="J118" t="n">
-        <v>0.07875674118566782</v>
+        <v>0.06550244902956974</v>
       </c>
       <c r="K118" t="n">
         <v>1.918921038787323</v>
       </c>
       <c r="L118" t="n">
-        <v>0.0748650568258401</v>
+        <v>0.1012981367740334</v>
       </c>
       <c r="M118" t="n">
         <v>1.918921038787323</v>
       </c>
       <c r="N118" t="n">
-        <v>0.131308908959733</v>
+        <v>0.1130555509920793</v>
       </c>
       <c r="O118" t="n">
         <v>1.918921038787323</v>
@@ -4269,25 +4269,25 @@
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.07677001463951022</v>
+        <v>0.06471709744073322</v>
       </c>
       <c r="G119" t="n">
         <v>1.955127096122933</v>
       </c>
       <c r="J119" t="n">
-        <v>0.07677001463951022</v>
+        <v>0.06471709744073322</v>
       </c>
       <c r="K119" t="n">
         <v>1.955127096122933</v>
       </c>
       <c r="L119" t="n">
-        <v>0.07359625076882648</v>
+        <v>0.1026582392782961</v>
       </c>
       <c r="M119" t="n">
         <v>1.955127096122933</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1344895293974233</v>
+        <v>0.1226423854186107</v>
       </c>
       <c r="O119" t="n">
         <v>1.955127096122933</v>
@@ -4295,25 +4295,25 @@
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.07618332384300425</v>
+        <v>0.0652431585577308</v>
       </c>
       <c r="G120" t="n">
         <v>1.991333153458543</v>
       </c>
       <c r="J120" t="n">
-        <v>0.07618332384300425</v>
+        <v>0.0652431585577308</v>
       </c>
       <c r="K120" t="n">
         <v>1.991333153458543</v>
       </c>
       <c r="L120" t="n">
-        <v>0.0785381408184767</v>
+        <v>0.1076319981583381</v>
       </c>
       <c r="M120" t="n">
         <v>1.991333153458543</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1384035875810564</v>
+        <v>0.1149044644071216</v>
       </c>
       <c r="O120" t="n">
         <v>1.991333153458543</v>
@@ -4321,25 +4321,25 @@
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.07791939205462936</v>
+        <v>0.06364394021944189</v>
       </c>
       <c r="G121" t="n">
         <v>2.027539210794152</v>
       </c>
       <c r="J121" t="n">
-        <v>0.07791939205462936</v>
+        <v>0.06364394021944189</v>
       </c>
       <c r="K121" t="n">
         <v>2.027539210794152</v>
       </c>
       <c r="L121" t="n">
-        <v>0.0776712104697542</v>
+        <v>0.110207888146533</v>
       </c>
       <c r="M121" t="n">
         <v>2.027539210794152</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1387824094904118</v>
+        <v>0.1228820944698636</v>
       </c>
       <c r="O121" t="n">
         <v>2.027539210794152</v>
@@ -4347,25 +4347,25 @@
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.0805489938119275</v>
+        <v>0.06733472468682898</v>
       </c>
       <c r="G122" t="n">
         <v>2.063745268129762</v>
       </c>
       <c r="J122" t="n">
-        <v>0.0805489938119275</v>
+        <v>0.06733472468682898</v>
       </c>
       <c r="K122" t="n">
         <v>2.063745268129762</v>
       </c>
       <c r="L122" t="n">
-        <v>0.07816918887449936</v>
+        <v>0.1048454530604374</v>
       </c>
       <c r="M122" t="n">
         <v>2.063745268129762</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1356601421095131</v>
+        <v>0.114576013683778</v>
       </c>
       <c r="O122" t="n">
         <v>2.063745268129762</v>
@@ -4373,25 +4373,25 @@
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.07821509548030947</v>
+        <v>0.06640365108562458</v>
       </c>
       <c r="G123" t="n">
         <v>2.099951325465372</v>
       </c>
       <c r="J123" t="n">
-        <v>0.07821509548030947</v>
+        <v>0.06640365108562458</v>
       </c>
       <c r="K123" t="n">
         <v>2.099951325465372</v>
       </c>
       <c r="L123" t="n">
-        <v>0.07837455972950547</v>
+        <v>0.1041751772888061</v>
       </c>
       <c r="M123" t="n">
         <v>2.099951325465372</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1336481086994731</v>
+        <v>0.1239115926441865</v>
       </c>
       <c r="O123" t="n">
         <v>2.099951325465372</v>
@@ -4399,25 +4399,25 @@
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.07625334991296639</v>
+        <v>0.06678852975035653</v>
       </c>
       <c r="G124" t="n">
         <v>2.136157382800982</v>
       </c>
       <c r="J124" t="n">
-        <v>0.07625334991296639</v>
+        <v>0.06678852975035653</v>
       </c>
       <c r="K124" t="n">
         <v>2.136157382800982</v>
       </c>
       <c r="L124" t="n">
-        <v>0.07775425851102188</v>
+        <v>0.1091863974039129</v>
       </c>
       <c r="M124" t="n">
         <v>2.136157382800982</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1361214580360667</v>
+        <v>0.1179796370347016</v>
       </c>
       <c r="O124" t="n">
         <v>2.136157382800982</v>
@@ -4425,25 +4425,25 @@
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.08346175797496364</v>
+        <v>0.06312853162199607</v>
       </c>
       <c r="G125" t="n">
         <v>2.172363440136592</v>
       </c>
       <c r="J125" t="n">
-        <v>0.08346175797496364</v>
+        <v>0.06312853162199607</v>
       </c>
       <c r="K125" t="n">
         <v>2.172363440136592</v>
       </c>
       <c r="L125" t="n">
-        <v>0.07969272101024416</v>
+        <v>0.1047510968110355</v>
       </c>
       <c r="M125" t="n">
         <v>2.172363440136592</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1321327222000942</v>
+        <v>0.1164407269861192</v>
       </c>
       <c r="O125" t="n">
         <v>2.172363440136592</v>
@@ -4451,25 +4451,25 @@
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.07846768288581354</v>
+        <v>0.06465026807610022</v>
       </c>
       <c r="G126" t="n">
         <v>2.208569497472202</v>
       </c>
       <c r="J126" t="n">
-        <v>0.07846768288581354</v>
+        <v>0.06465026807610022</v>
       </c>
       <c r="K126" t="n">
         <v>2.208569497472202</v>
       </c>
       <c r="L126" t="n">
-        <v>0.07782151006162258</v>
+        <v>0.103689973202135</v>
       </c>
       <c r="M126" t="n">
         <v>2.208569497472202</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1306554619503559</v>
+        <v>0.1179864196618757</v>
       </c>
       <c r="O126" t="n">
         <v>2.208569497472202</v>
@@ -4477,25 +4477,25 @@
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.0769029918411107</v>
+        <v>0.0642077040026711</v>
       </c>
       <c r="G127" t="n">
         <v>2.244775554807812</v>
       </c>
       <c r="J127" t="n">
-        <v>0.0769029918411107</v>
+        <v>0.0642077040026711</v>
       </c>
       <c r="K127" t="n">
         <v>2.244775554807812</v>
       </c>
       <c r="L127" t="n">
-        <v>0.0778012404876441</v>
+        <v>0.1115815168358423</v>
       </c>
       <c r="M127" t="n">
         <v>2.244775554807812</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1356806555971003</v>
+        <v>0.1226692025940294</v>
       </c>
       <c r="O127" t="n">
         <v>2.244775554807812</v>
@@ -4503,25 +4503,25 @@
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.07935281234934337</v>
+        <v>0.0654309051452769</v>
       </c>
       <c r="G128" t="n">
         <v>2.280981612143421</v>
       </c>
       <c r="J128" t="n">
-        <v>0.07935281234934337</v>
+        <v>0.0654309051452769</v>
       </c>
       <c r="K128" t="n">
         <v>2.280981612143421</v>
       </c>
       <c r="L128" t="n">
-        <v>0.07814635771791534</v>
+        <v>0.1070423096800108</v>
       </c>
       <c r="M128" t="n">
         <v>2.280981612143421</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1405320225452575</v>
+        <v>0.1208618102905538</v>
       </c>
       <c r="O128" t="n">
         <v>2.280981612143421</v>
@@ -4529,25 +4529,25 @@
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.0804309051452769</v>
+        <v>0.06537856039495588</v>
       </c>
       <c r="G129" t="n">
         <v>2.317187669479031</v>
       </c>
       <c r="J129" t="n">
-        <v>0.0804309051452769</v>
+        <v>0.06537856039495588</v>
       </c>
       <c r="K129" t="n">
         <v>2.317187669479031</v>
       </c>
       <c r="L129" t="n">
-        <v>0.07781032835552876</v>
+        <v>0.1081463577179153</v>
       </c>
       <c r="M129" t="n">
         <v>2.317187669479031</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1358618102905538</v>
+        <v>0.125237007750014</v>
       </c>
       <c r="O129" t="n">
         <v>2.317187669479031</v>
@@ -4555,25 +4555,25 @@
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.08409089214772089</v>
+        <v>0.06304602253517552</v>
       </c>
       <c r="G130" t="n">
         <v>2.353393726814641</v>
       </c>
       <c r="J130" t="n">
-        <v>0.08409089214772089</v>
+        <v>0.06304602253517552</v>
       </c>
       <c r="K130" t="n">
         <v>2.353393726814641</v>
       </c>
       <c r="L130" t="n">
-        <v>0.07556633854191924</v>
+        <v>0.1082320705641551</v>
       </c>
       <c r="M130" t="n">
         <v>2.353393726814641</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1319405792932729</v>
+        <v>0.116931715077448</v>
       </c>
       <c r="O130" t="n">
         <v>2.353393726814641</v>
@@ -4581,25 +4581,25 @@
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.07934025473075744</v>
+        <v>0.06387414014698686</v>
       </c>
       <c r="G131" t="n">
         <v>2.389599784150251</v>
       </c>
       <c r="J131" t="n">
-        <v>0.07934025473075744</v>
+        <v>0.06387414014698686</v>
       </c>
       <c r="K131" t="n">
         <v>2.389599784150251</v>
       </c>
       <c r="L131" t="n">
-        <v>0.07932854646160653</v>
+        <v>0.1065338286742709</v>
       </c>
       <c r="M131" t="n">
         <v>2.389599784150251</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1392331292009454</v>
+        <v>0.1186904988809535</v>
       </c>
       <c r="O131" t="n">
         <v>2.389599784150251</v>
@@ -4607,25 +4607,25 @@
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.07955109237710135</v>
+        <v>0.06362465057336801</v>
       </c>
       <c r="G132" t="n">
         <v>2.425805841485861</v>
       </c>
       <c r="J132" t="n">
-        <v>0.07955109237710135</v>
+        <v>0.06362465057336801</v>
       </c>
       <c r="K132" t="n">
         <v>2.425805841485861</v>
       </c>
       <c r="L132" t="n">
-        <v>0.07719223878832776</v>
+        <v>0.1118465363501714</v>
       </c>
       <c r="M132" t="n">
         <v>2.425805841485861</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1367872558091837</v>
+        <v>0.1171288076191094</v>
       </c>
       <c r="O132" t="n">
         <v>2.425805841485861</v>
@@ -4633,25 +4633,25 @@
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.07874626306513217</v>
+        <v>0.06808463175039139</v>
       </c>
       <c r="G133" t="n">
         <v>2.462011898821471</v>
       </c>
       <c r="J133" t="n">
-        <v>0.07874626306513217</v>
+        <v>0.06808463175039139</v>
       </c>
       <c r="K133" t="n">
         <v>2.462011898821471</v>
       </c>
       <c r="L133" t="n">
-        <v>0.07902209396152406</v>
+        <v>0.1092140625162424</v>
       </c>
       <c r="M133" t="n">
         <v>2.462011898821471</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1368549259848331</v>
+        <v>0.1207293928578558</v>
       </c>
       <c r="O133" t="n">
         <v>2.462011898821471</v>
@@ -4659,25 +4659,25 @@
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.08334108147585519</v>
+        <v>0.06259446405445028</v>
       </c>
       <c r="G134" t="n">
         <v>2.498217956157081</v>
       </c>
       <c r="J134" t="n">
-        <v>0.08334108147585519</v>
+        <v>0.06259446405445028</v>
       </c>
       <c r="K134" t="n">
         <v>2.498217956157081</v>
       </c>
       <c r="L134" t="n">
-        <v>0.0795332040014074</v>
+        <v>0.1094031012039252</v>
       </c>
       <c r="M134" t="n">
         <v>2.498217956157081</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1375601589322012</v>
+        <v>0.1233725780569765</v>
       </c>
       <c r="O134" t="n">
         <v>2.498217956157081</v>
@@ -4685,25 +4685,25 @@
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.08010114974526907</v>
+        <v>0.06389412261424052</v>
       </c>
       <c r="G135" t="n">
         <v>2.534424013492691</v>
       </c>
       <c r="J135" t="n">
-        <v>0.08010114974526907</v>
+        <v>0.06389412261424052</v>
       </c>
       <c r="K135" t="n">
         <v>2.534424013492691</v>
       </c>
       <c r="L135" t="n">
-        <v>0.08119804073247941</v>
+        <v>0.1128741237954146</v>
       </c>
       <c r="M135" t="n">
         <v>2.534424013492691</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1342841537597787</v>
+        <v>0.1156451217471306</v>
       </c>
       <c r="O135" t="n">
         <v>2.534424013492691</v>
@@ -4711,25 +4711,25 @@
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.08285711430526288</v>
+        <v>0.06303710904711964</v>
       </c>
       <c r="G136" t="n">
         <v>2.570630070828301</v>
       </c>
       <c r="J136" t="n">
-        <v>0.08285711430526288</v>
+        <v>0.06303710904711964</v>
       </c>
       <c r="K136" t="n">
         <v>2.570630070828301</v>
       </c>
       <c r="L136" t="n">
-        <v>0.0800945020005665</v>
+        <v>0.1076464422036855</v>
       </c>
       <c r="M136" t="n">
         <v>2.570630070828301</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1361150935848271</v>
+        <v>0.1198961522883744</v>
       </c>
       <c r="O136" t="n">
         <v>2.570630070828301</v>
@@ -4737,25 +4737,25 @@
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.080902508911011</v>
+        <v>0.0640248749289577</v>
       </c>
       <c r="G137" t="n">
         <v>2.606836128163911</v>
       </c>
       <c r="J137" t="n">
-        <v>0.080902508911011</v>
+        <v>0.0640248749289577</v>
       </c>
       <c r="K137" t="n">
         <v>2.606836128163911</v>
       </c>
       <c r="L137" t="n">
-        <v>0.07528721354908352</v>
+        <v>0.1104683972710102</v>
       </c>
       <c r="M137" t="n">
         <v>2.606836128163911</v>
       </c>
       <c r="N137" t="n">
-        <v>0.140249935674206</v>
+        <v>0.1231222860545277</v>
       </c>
       <c r="O137" t="n">
         <v>2.606836128163911</v>
@@ -4763,25 +4763,25 @@
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.08559645853296244</v>
+        <v>0.06533897429283735</v>
       </c>
       <c r="G138" t="n">
         <v>2.64304218549952</v>
       </c>
       <c r="J138" t="n">
-        <v>0.08559645853296244</v>
+        <v>0.06533897429283735</v>
       </c>
       <c r="K138" t="n">
         <v>2.64304218549952</v>
       </c>
       <c r="L138" t="n">
-        <v>0.07832338235070786</v>
+        <v>0.1068347259381945</v>
       </c>
       <c r="M138" t="n">
         <v>2.64304218549952</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1420112919217146</v>
+        <v>0.121416826699083</v>
       </c>
       <c r="O138" t="n">
         <v>2.64304218549952</v>
@@ -4789,25 +4789,25 @@
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.08180605846366876</v>
+        <v>0.06235385421327267</v>
       </c>
       <c r="G139" t="n">
         <v>2.67924824283513</v>
       </c>
       <c r="J139" t="n">
-        <v>0.08180605846366876</v>
+        <v>0.06235385421327267</v>
       </c>
       <c r="K139" t="n">
         <v>2.67924824283513</v>
       </c>
       <c r="L139" t="n">
-        <v>0.0746076831450522</v>
+        <v>0.1125066432514581</v>
       </c>
       <c r="M139" t="n">
         <v>2.67924824283513</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1359500444235084</v>
+        <v>0.1139860821210309</v>
       </c>
       <c r="O139" t="n">
         <v>2.67924824283513</v>
@@ -4815,25 +4815,25 @@
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.08530960726740475</v>
+        <v>0.06292159303114757</v>
       </c>
       <c r="G140" t="n">
         <v>2.71545430017074</v>
       </c>
       <c r="J140" t="n">
-        <v>0.08530960726740475</v>
+        <v>0.06292159303114757</v>
       </c>
       <c r="K140" t="n">
         <v>2.71545430017074</v>
       </c>
       <c r="L140" t="n">
-        <v>0.08028733353949184</v>
+        <v>0.1140651020721163</v>
       </c>
       <c r="M140" t="n">
         <v>2.71545430017074</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1337732339932534</v>
+        <v>0.1220016021482339</v>
       </c>
       <c r="O140" t="n">
         <v>2.71545430017074</v>
@@ -4841,25 +4841,25 @@
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.08361521485341208</v>
+        <v>0.06239718938185494</v>
       </c>
       <c r="G141" t="n">
         <v>2.75166035750635</v>
       </c>
       <c r="J141" t="n">
-        <v>0.08361521485341208</v>
+        <v>0.06239718938185494</v>
       </c>
       <c r="K141" t="n">
         <v>2.75166035750635</v>
       </c>
       <c r="L141" t="n">
-        <v>0.0803258299724707</v>
+        <v>0.1074223491000273</v>
       </c>
       <c r="M141" t="n">
         <v>2.75166035750635</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1341602485843429</v>
+        <v>0.1231744358086931</v>
       </c>
       <c r="O141" t="n">
         <v>2.75166035750635</v>
@@ -4867,25 +4867,25 @@
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.08409688773796634</v>
+        <v>0.06633877662724132</v>
       </c>
       <c r="G142" t="n">
         <v>2.78786641484196</v>
       </c>
       <c r="J142" t="n">
-        <v>0.08409688773796634</v>
+        <v>0.06633877662724132</v>
       </c>
       <c r="K142" t="n">
         <v>2.78786641484196</v>
       </c>
       <c r="L142" t="n">
-        <v>0.07804961612881677</v>
+        <v>0.109473269617647</v>
       </c>
       <c r="M142" t="n">
         <v>2.78786641484196</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1390539176725871</v>
+        <v>0.1148491930909859</v>
       </c>
       <c r="O142" t="n">
         <v>2.78786641484196</v>
@@ -4893,25 +4893,25 @@
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.08109411322806415</v>
+        <v>0.06598839699326703</v>
       </c>
       <c r="G143" t="n">
         <v>2.82407247217757</v>
       </c>
       <c r="J143" t="n">
-        <v>0.08109411322806415</v>
+        <v>0.06598839699326703</v>
       </c>
       <c r="K143" t="n">
         <v>2.82407247217757</v>
       </c>
       <c r="L143" t="n">
-        <v>0.07724690983420235</v>
+        <v>0.1082467685052848</v>
       </c>
       <c r="M143" t="n">
         <v>2.82407247217757</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1404900589043448</v>
+        <v>0.1195948050042151</v>
       </c>
       <c r="O143" t="n">
         <v>2.82407247217757</v>
@@ -4919,25 +4919,25 @@
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.08294717311598464</v>
+        <v>0.06558150297883179</v>
       </c>
       <c r="G144" t="n">
         <v>2.86027852951318</v>
       </c>
       <c r="J144" t="n">
-        <v>0.08294717311598464</v>
+        <v>0.06558150297883179</v>
       </c>
       <c r="K144" t="n">
         <v>2.86027852951318</v>
       </c>
       <c r="L144" t="n">
-        <v>0.07633811051017642</v>
+        <v>0.1065587642613174</v>
       </c>
       <c r="M144" t="n">
         <v>2.86027852951318</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1411177426225151</v>
+        <v>0.1188859250120003</v>
       </c>
       <c r="O144" t="n">
         <v>2.86027852951318</v>
@@ -4945,25 +4945,25 @@
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.08452690712553776</v>
+        <v>0.06605310985721594</v>
       </c>
       <c r="G145" t="n">
         <v>2.896484586848789</v>
       </c>
       <c r="J145" t="n">
-        <v>0.08452690712553776</v>
+        <v>0.06605310985721594</v>
       </c>
       <c r="K145" t="n">
         <v>2.896484586848789</v>
       </c>
       <c r="L145" t="n">
-        <v>0.07922347062061734</v>
+        <v>0.1151505057679723</v>
       </c>
       <c r="M145" t="n">
         <v>2.896484586848789</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1399926675912255</v>
+        <v>0.1133493933855601</v>
       </c>
       <c r="O145" t="n">
         <v>2.896484586848789</v>
@@ -4971,25 +4971,25 @@
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.08058918903954233</v>
+        <v>0.06528806468692014</v>
       </c>
       <c r="G146" t="n">
         <v>2.932690644184399</v>
       </c>
       <c r="J146" t="n">
-        <v>0.08058918903954233</v>
+        <v>0.06528806468692014</v>
       </c>
       <c r="K146" t="n">
         <v>2.932690644184399</v>
       </c>
       <c r="L146" t="n">
-        <v>0.07634264944137217</v>
+        <v>0.1161298044785528</v>
       </c>
       <c r="M146" t="n">
         <v>2.932690644184399</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1321618898184937</v>
+        <v>0.1136956716310827</v>
       </c>
       <c r="O146" t="n">
         <v>2.932690644184399</v>
@@ -4997,25 +4997,25 @@
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.08234837966453792</v>
+        <v>0.06397427561133673</v>
       </c>
       <c r="G147" t="n">
         <v>2.968896701520009</v>
       </c>
       <c r="J147" t="n">
-        <v>0.08234837966453792</v>
+        <v>0.06397427561133673</v>
       </c>
       <c r="K147" t="n">
         <v>2.968896701520009</v>
       </c>
       <c r="L147" t="n">
-        <v>0.07588594604837023</v>
+        <v>0.1101397184793965</v>
       </c>
       <c r="M147" t="n">
         <v>2.968896701520009</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1377192260158818</v>
+        <v>0.1170377937767905</v>
       </c>
       <c r="O147" t="n">
         <v>2.968896701520009</v>
@@ -5023,25 +5023,25 @@
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.08211140450460429</v>
+        <v>0.06338234343600307</v>
       </c>
       <c r="G148" t="n">
         <v>3.005102758855619</v>
       </c>
       <c r="J148" t="n">
-        <v>0.08211140450460429</v>
+        <v>0.06338234343600307</v>
       </c>
       <c r="K148" t="n">
         <v>3.005102758855619</v>
       </c>
       <c r="L148" t="n">
-        <v>0.07888538310109554</v>
+        <v>0.1119223291667686</v>
       </c>
       <c r="M148" t="n">
         <v>3.005102758855619</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1402657989354774</v>
+        <v>0.1169490584596033</v>
       </c>
       <c r="O148" t="n">
         <v>3.005102758855619</v>
@@ -5049,25 +5049,25 @@
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.08391294430116009</v>
+        <v>0.06527403147300527</v>
       </c>
       <c r="G149" t="n">
         <v>3.041308816191229</v>
       </c>
       <c r="J149" t="n">
-        <v>0.08391294430116009</v>
+        <v>0.06527403147300527</v>
       </c>
       <c r="K149" t="n">
         <v>3.041308816191229</v>
       </c>
       <c r="L149" t="n">
-        <v>0.07759782847918281</v>
+        <v>0.1081341185040633</v>
       </c>
       <c r="M149" t="n">
         <v>3.041308816191229</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1433856023888139</v>
+        <v>0.1167892635033521</v>
       </c>
       <c r="O149" t="n">
         <v>3.041308816191229</v>
@@ -5075,25 +5075,25 @@
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.08071458003485145</v>
+        <v>0.0601290987862915</v>
       </c>
       <c r="G150" t="n">
         <v>3.077514873526839</v>
       </c>
       <c r="J150" t="n">
-        <v>0.08071458003485145</v>
+        <v>0.0601290987862915</v>
       </c>
       <c r="K150" t="n">
         <v>3.077514873526839</v>
       </c>
       <c r="L150" t="n">
-        <v>0.07682951865082345</v>
+        <v>0.1087163952183677</v>
       </c>
       <c r="M150" t="n">
         <v>3.077514873526839</v>
       </c>
       <c r="N150" t="n">
-        <v>0.134662517299149</v>
+        <v>0.1187486351800597</v>
       </c>
       <c r="O150" t="n">
         <v>3.077514873526839</v>
@@ -5101,25 +5101,25 @@
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.08466936924087573</v>
+        <v>0.06237187786397198</v>
       </c>
       <c r="G151" t="n">
         <v>3.113720930862448</v>
       </c>
       <c r="J151" t="n">
-        <v>0.08466936924087573</v>
+        <v>0.06237187786397198</v>
       </c>
       <c r="K151" t="n">
         <v>3.113720930862448</v>
       </c>
       <c r="L151" t="n">
-        <v>0.07912674047169777</v>
+        <v>0.1136998194792002</v>
       </c>
       <c r="M151" t="n">
         <v>3.113720930862448</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1423501699297417</v>
+        <v>0.1128101751826346</v>
       </c>
       <c r="O151" t="n">
         <v>3.113720930862448</v>
@@ -5127,25 +5127,25 @@
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.08619991993527053</v>
+        <v>0.06494177974438096</v>
       </c>
       <c r="G152" t="n">
         <v>3.149926988198058</v>
       </c>
       <c r="J152" t="n">
-        <v>0.08619991993527053</v>
+        <v>0.06494177974438096</v>
       </c>
       <c r="K152" t="n">
         <v>3.149926988198058</v>
       </c>
       <c r="L152" t="n">
-        <v>0.07897339868468983</v>
+        <v>0.1083615209573228</v>
       </c>
       <c r="M152" t="n">
         <v>3.149926988198058</v>
       </c>
       <c r="N152" t="n">
-        <v>0.134509166435806</v>
+        <v>0.1126221503300135</v>
       </c>
       <c r="O152" t="n">
         <v>3.149926988198058</v>
@@ -5153,25 +5153,25 @@
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.08525128012920925</v>
+        <v>0.06326484608372861</v>
       </c>
       <c r="G153" t="n">
         <v>3.186133045533668</v>
       </c>
       <c r="J153" t="n">
-        <v>0.08525128012920925</v>
+        <v>0.06326484608372861</v>
       </c>
       <c r="K153" t="n">
         <v>3.186133045533668</v>
       </c>
       <c r="L153" t="n">
-        <v>0.07442970542930835</v>
+        <v>0.1136459560154145</v>
       </c>
       <c r="M153" t="n">
         <v>3.186133045533668</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1327579268913056</v>
+        <v>0.1083970338942973</v>
       </c>
       <c r="O153" t="n">
         <v>3.186133045533668</v>
@@ -5179,25 +5179,25 @@
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.08282440640385996</v>
+        <v>0.06081811126588712</v>
       </c>
       <c r="G154" t="n">
         <v>3.222339102869278</v>
       </c>
       <c r="J154" t="n">
-        <v>0.08282440640385996</v>
+        <v>0.06081811126588712</v>
       </c>
       <c r="K154" t="n">
         <v>3.222339102869278</v>
       </c>
       <c r="L154" t="n">
-        <v>0.07334500402735358</v>
+        <v>0.1136792554974224</v>
       </c>
       <c r="M154" t="n">
         <v>3.222339102869278</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1394406909525721</v>
+        <v>0.1082160800189132</v>
       </c>
       <c r="O154" t="n">
         <v>3.222339102869278</v>
@@ -5205,25 +5205,25 @@
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.08181747353309714</v>
+        <v>0.0642306492719229</v>
       </c>
       <c r="G155" t="n">
         <v>3.258545160204888</v>
       </c>
       <c r="J155" t="n">
-        <v>0.08181747353309714</v>
+        <v>0.0642306492719229</v>
       </c>
       <c r="K155" t="n">
         <v>3.258545160204888</v>
       </c>
       <c r="L155" t="n">
-        <v>0.07912803791223863</v>
+        <v>0.1090334087721482</v>
       </c>
       <c r="M155" t="n">
         <v>3.258545160204888</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1333151179590283</v>
+        <v>0.1091158942322191</v>
       </c>
       <c r="O155" t="n">
         <v>3.258545160204888</v>
@@ -5231,25 +5231,25 @@
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.08373655417001294</v>
+        <v>0.06254005420982327</v>
       </c>
       <c r="G156" t="n">
         <v>3.294751217540498</v>
       </c>
       <c r="J156" t="n">
-        <v>0.08373655417001294</v>
+        <v>0.06254005420982327</v>
       </c>
       <c r="K156" t="n">
         <v>3.294751217540498</v>
       </c>
       <c r="L156" t="n">
-        <v>0.07661269895680736</v>
+        <v>0.1073247752740697</v>
       </c>
       <c r="M156" t="n">
         <v>3.294751217540498</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1332270751245451</v>
+        <v>0.1133742844204364</v>
       </c>
       <c r="O156" t="n">
         <v>3.294751217540498</v>
@@ -5257,25 +5257,25 @@
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.0828059962323725</v>
+        <v>0.06139710064791472</v>
       </c>
       <c r="G157" t="n">
         <v>3.330957274876108</v>
       </c>
       <c r="J157" t="n">
-        <v>0.0828059962323725</v>
+        <v>0.06139710064791472</v>
       </c>
       <c r="K157" t="n">
         <v>3.330957274876108</v>
       </c>
       <c r="L157" t="n">
-        <v>0.07728223712423761</v>
+        <v>0.1101022379070101</v>
       </c>
       <c r="M157" t="n">
         <v>3.330957274876108</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1389310632297174</v>
+        <v>0.1101598116210312</v>
       </c>
       <c r="O157" t="n">
         <v>3.330957274876108</v>
@@ -5283,25 +5283,25 @@
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.08107768320313768</v>
+        <v>0.06365577062635952</v>
       </c>
       <c r="G158" t="n">
         <v>3.367163332211717</v>
       </c>
       <c r="J158" t="n">
-        <v>0.08107768320313768</v>
+        <v>0.06365577062635952</v>
       </c>
       <c r="K158" t="n">
         <v>3.367163332211717</v>
       </c>
       <c r="L158" t="n">
-        <v>0.07521778678392271</v>
+        <v>0.1093336078517212</v>
       </c>
       <c r="M158" t="n">
         <v>3.367163332211717</v>
       </c>
       <c r="N158" t="n">
-        <v>0.135879254641033</v>
+        <v>0.1139813304515063</v>
       </c>
       <c r="O158" t="n">
         <v>3.367163332211717</v>
@@ -5309,25 +5309,25 @@
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.0867034471582504</v>
+        <v>0.05910272653537475</v>
       </c>
       <c r="G159" t="n">
         <v>3.403369389547327</v>
       </c>
       <c r="J159" t="n">
-        <v>0.0867034471582504</v>
+        <v>0.05910272653537475</v>
       </c>
       <c r="K159" t="n">
         <v>3.403369389547327</v>
       </c>
       <c r="L159" t="n">
-        <v>0.07722585138405852</v>
+        <v>0.1157112562282862</v>
       </c>
       <c r="M159" t="n">
         <v>3.403369389547327</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1413636576554429</v>
+        <v>0.1122489509112038</v>
       </c>
       <c r="O159" t="n">
         <v>3.403369389547327</v>
@@ -5335,25 +5335,25 @@
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.08098572684267356</v>
+        <v>0.05964203827456281</v>
       </c>
       <c r="G160" t="n">
         <v>3.439575446882937</v>
       </c>
       <c r="J160" t="n">
-        <v>0.08098572684267356</v>
+        <v>0.05964203827456281</v>
       </c>
       <c r="K160" t="n">
         <v>3.439575446882937</v>
       </c>
       <c r="L160" t="n">
-        <v>0.07798728336261136</v>
+        <v>0.1115341301651815</v>
       </c>
       <c r="M160" t="n">
         <v>3.439575446882937</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1435350840443998</v>
+        <v>0.1058217798460889</v>
       </c>
       <c r="O160" t="n">
         <v>3.439575446882937</v>
@@ -5361,25 +5361,25 @@
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.08513943889410898</v>
+        <v>0.05849568599193979</v>
       </c>
       <c r="G161" t="n">
         <v>3.475781504218547</v>
       </c>
       <c r="J161" t="n">
-        <v>0.08513943889410898</v>
+        <v>0.05849568599193979</v>
       </c>
       <c r="K161" t="n">
         <v>3.475781504218547</v>
       </c>
       <c r="L161" t="n">
-        <v>0.07648149889532728</v>
+        <v>0.1128148336279163</v>
       </c>
       <c r="M161" t="n">
         <v>3.475781504218547</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1399342902170095</v>
+        <v>0.1122216377427988</v>
       </c>
       <c r="O161" t="n">
         <v>3.475781504218547</v>
@@ -5387,25 +5387,25 @@
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.08325483881490506</v>
+        <v>0.06131263619894249</v>
       </c>
       <c r="G162" t="n">
         <v>3.511987561554157</v>
       </c>
       <c r="J162" t="n">
-        <v>0.08325483881490506</v>
+        <v>0.06131263619894249</v>
       </c>
       <c r="K162" t="n">
         <v>3.511987561554157</v>
       </c>
       <c r="L162" t="n">
-        <v>0.07393488659503257</v>
+        <v>0.1121986853774531</v>
       </c>
       <c r="M162" t="n">
         <v>3.511987561554157</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1382173831102583</v>
+        <v>0.1063158393171203</v>
       </c>
       <c r="O162" t="n">
         <v>3.511987561554157</v>
@@ -5413,25 +5413,25 @@
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.08573695081146226</v>
+        <v>0.05818942501257758</v>
       </c>
       <c r="G163" t="n">
         <v>3.548193618889767</v>
       </c>
       <c r="J163" t="n">
-        <v>0.08573695081146226</v>
+        <v>0.05818942501257758</v>
       </c>
       <c r="K163" t="n">
         <v>3.548193618889767</v>
       </c>
       <c r="L163" t="n">
-        <v>0.07444115229620679</v>
+        <v>0.1073509497586869</v>
       </c>
       <c r="M163" t="n">
         <v>3.548193618889767</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1315846514796899</v>
+        <v>0.1062127777635003</v>
       </c>
       <c r="O163" t="n">
         <v>3.548193618889767</v>
@@ -5439,25 +5439,25 @@
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.08003537522129563</v>
+        <v>0.05813913593318401</v>
       </c>
       <c r="G164" t="n">
         <v>3.584399676225377</v>
       </c>
       <c r="J164" t="n">
-        <v>0.08003537522129563</v>
+        <v>0.05813913593318401</v>
       </c>
       <c r="K164" t="n">
         <v>3.584399676225377</v>
       </c>
       <c r="L164" t="n">
-        <v>0.07841862212372434</v>
+        <v>0.1136864236324685</v>
       </c>
       <c r="M164" t="n">
         <v>3.584399676225377</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1392409215255967</v>
+        <v>0.103864166075549</v>
       </c>
       <c r="O164" t="n">
         <v>3.584399676225377</v>
@@ -5465,25 +5465,25 @@
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.07877836509101613</v>
+        <v>0.05735022893440408</v>
       </c>
       <c r="G165" t="n">
         <v>3.620605733560986</v>
       </c>
       <c r="J165" t="n">
-        <v>0.07877836509101613</v>
+        <v>0.05735022893440408</v>
       </c>
       <c r="K165" t="n">
         <v>3.620605733560986</v>
       </c>
       <c r="L165" t="n">
-        <v>0.07723336093577383</v>
+        <v>0.1120205781091969</v>
       </c>
       <c r="M165" t="n">
         <v>3.620605733560986</v>
       </c>
       <c r="N165" t="n">
-        <v>0.129593501992958</v>
+        <v>0.1099247855924755</v>
       </c>
       <c r="O165" t="n">
         <v>3.620605733560986</v>
@@ -5491,25 +5491,25 @@
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.08213638957398657</v>
+        <v>0.0593037706266526</v>
       </c>
       <c r="G166" t="n">
         <v>3.656811790896596</v>
       </c>
       <c r="J166" t="n">
-        <v>0.08213638957398657</v>
+        <v>0.0593037706266526</v>
       </c>
       <c r="K166" t="n">
         <v>3.656811790896596</v>
       </c>
       <c r="L166" t="n">
-        <v>0.07502404879701997</v>
+        <v>0.1086835912895269</v>
       </c>
       <c r="M166" t="n">
         <v>3.656811790896596</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1278977886917957</v>
+        <v>0.1076946972637785</v>
       </c>
       <c r="O166" t="n">
         <v>3.656811790896596</v>
@@ -5517,25 +5517,25 @@
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.07738874355680532</v>
+        <v>0.05942144139739824</v>
       </c>
       <c r="G167" t="n">
         <v>3.693017848232206</v>
       </c>
       <c r="J167" t="n">
-        <v>0.07738874355680532</v>
+        <v>0.05942144139739824</v>
       </c>
       <c r="K167" t="n">
         <v>3.693017848232206</v>
       </c>
       <c r="L167" t="n">
-        <v>0.07421498393986856</v>
+        <v>0.1141197889146465</v>
       </c>
       <c r="M167" t="n">
         <v>3.693017848232206</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1266841106378714</v>
+        <v>0.1099974781521785</v>
       </c>
       <c r="O167" t="n">
         <v>3.693017848232206</v>
@@ -5543,25 +5543,25 @@
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.0816064294254476</v>
+        <v>0.05787641009401089</v>
       </c>
       <c r="G168" t="n">
         <v>3.729223905567816</v>
       </c>
       <c r="J168" t="n">
-        <v>0.0816064294254476</v>
+        <v>0.05787641009401089</v>
       </c>
       <c r="K168" t="n">
         <v>3.729223905567816</v>
       </c>
       <c r="L168" t="n">
-        <v>0.07941708115083668</v>
+        <v>0.1104966459600614</v>
       </c>
       <c r="M168" t="n">
         <v>3.729223905567816</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1330074817232075</v>
+        <v>0.1055961626832982</v>
       </c>
       <c r="O168" t="n">
         <v>3.729223905567816</v>
@@ -5569,25 +5569,25 @@
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.08110992744018443</v>
+        <v>0.05997779456737446</v>
       </c>
       <c r="G169" t="n">
         <v>3.765429962903426</v>
       </c>
       <c r="J169" t="n">
-        <v>0.08110992744018443</v>
+        <v>0.05997779456737446</v>
       </c>
       <c r="K169" t="n">
         <v>3.765429962903426</v>
       </c>
       <c r="L169" t="n">
-        <v>0.07686695575029567</v>
+        <v>0.1079149672824581</v>
       </c>
       <c r="M169" t="n">
         <v>3.765429962903426</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1271936911519545</v>
+        <v>0.1084912733090726</v>
       </c>
       <c r="O169" t="n">
         <v>3.765429962903426</v>
@@ -5595,25 +5595,25 @@
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.0810524954342141</v>
+        <v>0.05765960765683426</v>
       </c>
       <c r="G170" t="n">
         <v>3.801636020239036</v>
       </c>
       <c r="J170" t="n">
-        <v>0.0810524954342141</v>
+        <v>0.05765960765683426</v>
       </c>
       <c r="K170" t="n">
         <v>3.801636020239036</v>
       </c>
       <c r="L170" t="n">
-        <v>0.07399643722158004</v>
+        <v>0.1164131370829308</v>
       </c>
       <c r="M170" t="n">
         <v>3.801636020239036</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1332454677488672</v>
+        <v>0.1094963791836054</v>
       </c>
       <c r="O170" t="n">
         <v>3.801636020239036</v>
@@ -5621,25 +5621,25 @@
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.08016594004193831</v>
+        <v>0.05950784345419164</v>
       </c>
       <c r="G171" t="n">
         <v>3.837842077574646</v>
       </c>
       <c r="J171" t="n">
-        <v>0.08016594004193831</v>
+        <v>0.05950784345419164</v>
       </c>
       <c r="K171" t="n">
         <v>3.837842077574646</v>
       </c>
       <c r="L171" t="n">
-        <v>0.07900470193701178</v>
+        <v>0.1070689097129022</v>
       </c>
       <c r="M171" t="n">
         <v>3.837842077574646</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1256182713870903</v>
+        <v>0.101759006764371</v>
       </c>
       <c r="O171" t="n">
         <v>3.837842077574646</v>
@@ -5647,25 +5647,25 @@
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.07809149533745184</v>
+        <v>0.06021504944076882</v>
       </c>
       <c r="G172" t="n">
         <v>3.874048134910256</v>
       </c>
       <c r="J172" t="n">
-        <v>0.07809149533745184</v>
+        <v>0.06021504944076882</v>
       </c>
       <c r="K172" t="n">
         <v>3.874048134910256</v>
       </c>
       <c r="L172" t="n">
-        <v>0.07727957734098406</v>
+        <v>0.1097087528374775</v>
       </c>
       <c r="M172" t="n">
         <v>3.874048134910256</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1303456359384593</v>
+        <v>0.1056039212376817</v>
       </c>
       <c r="O172" t="n">
         <v>3.874048134910256</v>
@@ -5673,25 +5673,25 @@
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.07918372936720425</v>
+        <v>0.05779090158094829</v>
       </c>
       <c r="G173" t="n">
         <v>3.910254192245866</v>
       </c>
       <c r="J173" t="n">
-        <v>0.07918372936720425</v>
+        <v>0.05779090158094829</v>
       </c>
       <c r="K173" t="n">
         <v>3.910254192245866</v>
       </c>
       <c r="L173" t="n">
-        <v>0.07318801472192811</v>
+        <v>0.1155185920366278</v>
       </c>
       <c r="M173" t="n">
         <v>3.910254192245866</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1195984511184484</v>
+        <v>0.1007932167225178</v>
       </c>
       <c r="O173" t="n">
         <v>3.910254192245866</v>
@@ -5699,25 +5699,25 @@
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.07910106549901504</v>
+        <v>0.05685042410647501</v>
       </c>
       <c r="G174" t="n">
         <v>3.946460249581476</v>
       </c>
       <c r="J174" t="n">
-        <v>0.07910106549901504</v>
+        <v>0.05685042410647501</v>
       </c>
       <c r="K174" t="n">
         <v>3.946460249581476</v>
       </c>
       <c r="L174" t="n">
-        <v>0.07372049940920103</v>
+        <v>0.110415765912054</v>
       </c>
       <c r="M174" t="n">
         <v>3.946460249581476</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1214478847321374</v>
+        <v>0.1084045650373417</v>
       </c>
       <c r="O174" t="n">
         <v>3.946460249581476</v>
@@ -5725,25 +5725,25 @@
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.07716843671913699</v>
+        <v>0.05924907725355683</v>
       </c>
       <c r="G175" t="n">
         <v>3.982666306917085</v>
       </c>
       <c r="J175" t="n">
-        <v>0.07716843671913699</v>
+        <v>0.05924907725355683</v>
       </c>
       <c r="K175" t="n">
         <v>3.982666306917085</v>
       </c>
       <c r="L175" t="n">
-        <v>0.0763607276759368</v>
+        <v>0.1140400093917737</v>
       </c>
       <c r="M175" t="n">
         <v>3.982666306917085</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1274840929178229</v>
+        <v>0.1039849650831857</v>
       </c>
       <c r="O175" t="n">
         <v>3.982666306917085</v>
@@ -5751,25 +5751,25 @@
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.07677730978611721</v>
+        <v>0.05803866949825881</v>
       </c>
       <c r="G176" t="n">
         <v>4.018872364252696</v>
       </c>
       <c r="J176" t="n">
-        <v>0.07677730978611721</v>
+        <v>0.05803866949825881</v>
       </c>
       <c r="K176" t="n">
         <v>4.018872364252696</v>
       </c>
       <c r="L176" t="n">
-        <v>0.07463788017265865</v>
+        <v>0.1069249668486129</v>
       </c>
       <c r="M176" t="n">
         <v>4.018872364252696</v>
       </c>
       <c r="N176" t="n">
-        <v>0.116986720364603</v>
+        <v>0.1068391711750101</v>
       </c>
       <c r="O176" t="n">
         <v>4.018872364252696</v>
@@ -5777,25 +5777,25 @@
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.07114658440226168</v>
+        <v>0.05810391056733367</v>
       </c>
       <c r="G177" t="n">
         <v>4.055078421588305</v>
       </c>
       <c r="J177" t="n">
-        <v>0.07114658440226168</v>
+        <v>0.05810391056733367</v>
       </c>
       <c r="K177" t="n">
         <v>4.055078421588305</v>
       </c>
       <c r="L177" t="n">
-        <v>0.07443405141382275</v>
+        <v>0.1073351180396854</v>
       </c>
       <c r="M177" t="n">
         <v>4.055078421588305</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1171193769718661</v>
+        <v>0.100697925327339</v>
       </c>
       <c r="O177" t="n">
         <v>4.055078421588305</v>
@@ -5803,25 +5803,25 @@
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.07298307451911633</v>
+        <v>0.05869145145848039</v>
       </c>
       <c r="G178" t="n">
         <v>4.091284478923915</v>
       </c>
       <c r="J178" t="n">
-        <v>0.07298307451911633</v>
+        <v>0.05869145145848039</v>
       </c>
       <c r="K178" t="n">
         <v>4.091284478923915</v>
       </c>
       <c r="L178" t="n">
-        <v>0.07406601477730353</v>
+        <v>0.1108838717025005</v>
       </c>
       <c r="M178" t="n">
         <v>4.091284478923915</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1213686043407125</v>
+        <v>0.1008690839319905</v>
       </c>
       <c r="O178" t="n">
         <v>4.091284478923915</v>
@@ -5829,25 +5829,25 @@
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.07022604731534339</v>
+        <v>0.05657604715616106</v>
       </c>
       <c r="G179" t="n">
         <v>4.127490536259525</v>
       </c>
       <c r="J179" t="n">
-        <v>0.07022604731534339</v>
+        <v>0.05657604715616106</v>
       </c>
       <c r="K179" t="n">
         <v>4.127490536259525</v>
       </c>
       <c r="L179" t="n">
-        <v>0.07601365614212395</v>
+        <v>0.1096055056846171</v>
       </c>
       <c r="M179" t="n">
         <v>4.127490536259525</v>
       </c>
       <c r="N179" t="n">
-        <v>0.115183389334869</v>
+        <v>0.1042373841349876</v>
       </c>
       <c r="O179" t="n">
         <v>4.127490536259525</v>
@@ -5855,25 +5855,25 @@
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.07378631966035605</v>
+        <v>0.0591352328437278</v>
       </c>
       <c r="G180" t="n">
         <v>4.163696593595135</v>
       </c>
       <c r="J180" t="n">
-        <v>0.07378631966035605</v>
+        <v>0.0591352328437278</v>
       </c>
       <c r="K180" t="n">
         <v>4.163696593595135</v>
       </c>
       <c r="L180" t="n">
-        <v>0.07418536283232914</v>
+        <v>0.1070806579879404</v>
       </c>
       <c r="M180" t="n">
         <v>4.163696593595135</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1225713865027161</v>
+        <v>0.09933301958056125</v>
       </c>
       <c r="O180" t="n">
         <v>4.163696593595135</v>
@@ -5881,25 +5881,25 @@
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.07102164595965739</v>
+        <v>0.05474589552973465</v>
       </c>
       <c r="G181" t="n">
         <v>4.199902650930745</v>
       </c>
       <c r="J181" t="n">
-        <v>0.07102164595965739</v>
+        <v>0.05474589552973465</v>
       </c>
       <c r="K181" t="n">
         <v>4.199902650930745</v>
       </c>
       <c r="L181" t="n">
-        <v>0.07741563543048142</v>
+        <v>0.1116182561787133</v>
       </c>
       <c r="M181" t="n">
         <v>4.199902650930745</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1214515095870318</v>
+        <v>0.1066850229889385</v>
       </c>
       <c r="O181" t="n">
         <v>4.199902650930745</v>
@@ -5907,25 +5907,25 @@
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.07211401258803726</v>
+        <v>0.05736096097314455</v>
       </c>
       <c r="G182" t="n">
         <v>4.236108708266355</v>
       </c>
       <c r="J182" t="n">
-        <v>0.07211401258803726</v>
+        <v>0.05736096097314455</v>
       </c>
       <c r="K182" t="n">
         <v>4.236108708266355</v>
       </c>
       <c r="L182" t="n">
-        <v>0.07792054838233861</v>
+        <v>0.1116037747400055</v>
       </c>
       <c r="M182" t="n">
         <v>4.236108708266355</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1128435426507948</v>
+        <v>0.1061843881428006</v>
       </c>
       <c r="O182" t="n">
         <v>4.236108708266355</v>
@@ -5933,25 +5933,25 @@
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.07335053339578099</v>
+        <v>0.05436404727971339</v>
       </c>
       <c r="G183" t="n">
         <v>4.272314765601964</v>
       </c>
       <c r="J183" t="n">
-        <v>0.07335053339578099</v>
+        <v>0.05436404727971339</v>
       </c>
       <c r="K183" t="n">
         <v>4.272314765601964</v>
       </c>
       <c r="L183" t="n">
-        <v>0.07564246100821022</v>
+        <v>0.1130886385626017</v>
       </c>
       <c r="M183" t="n">
         <v>4.272314765601964</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1206576989175613</v>
+        <v>0.1047235822435914</v>
       </c>
       <c r="O183" t="n">
         <v>4.272314765601964</v>
@@ -5959,25 +5959,25 @@
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.06747948249850627</v>
+        <v>0.05536616859832128</v>
       </c>
       <c r="G184" t="n">
         <v>4.308520822937574</v>
       </c>
       <c r="J184" t="n">
-        <v>0.06747948249850627</v>
+        <v>0.05536616859832128</v>
       </c>
       <c r="K184" t="n">
         <v>4.308520822937574</v>
       </c>
       <c r="L184" t="n">
-        <v>0.07733232196131547</v>
+        <v>0.1124932514577223</v>
       </c>
       <c r="M184" t="n">
         <v>4.308520822937574</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1195386914883729</v>
+        <v>0.09941828879377311</v>
       </c>
       <c r="O184" t="n">
         <v>4.308520822937574</v>
@@ -5985,25 +5985,25 @@
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.07198645784730473</v>
+        <v>0.05794866490683052</v>
       </c>
       <c r="G185" t="n">
         <v>4.344726880273184</v>
       </c>
       <c r="J185" t="n">
-        <v>0.07198645784730473</v>
+        <v>0.05794866490683052</v>
       </c>
       <c r="K185" t="n">
         <v>4.344726880273184</v>
       </c>
       <c r="L185" t="n">
-        <v>0.0766501650281297</v>
+        <v>0.1093645170805114</v>
       </c>
       <c r="M185" t="n">
         <v>4.344726880273184</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1184090414583581</v>
+        <v>0.1033063409531197</v>
       </c>
       <c r="O185" t="n">
         <v>4.344726880273184</v>
@@ -6011,25 +6011,25 @@
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.06820677355757333</v>
+        <v>0.05550126279102435</v>
       </c>
       <c r="G186" t="n">
         <v>4.380932937608794</v>
       </c>
       <c r="J186" t="n">
-        <v>0.06820677355757333</v>
+        <v>0.05550126279102435</v>
       </c>
       <c r="K186" t="n">
         <v>4.380932937608794</v>
       </c>
       <c r="L186" t="n">
-        <v>0.07903613292698758</v>
+        <v>0.1111991005412194</v>
       </c>
       <c r="M186" t="n">
         <v>4.380932937608794</v>
       </c>
       <c r="N186" t="n">
-        <v>0.113535477031152</v>
+        <v>0.1021760121625069</v>
       </c>
       <c r="O186" t="n">
         <v>4.380932937608794</v>
@@ -6037,25 +6037,25 @@
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.07028695927544414</v>
+        <v>0.05792138499660877</v>
       </c>
       <c r="G187" t="n">
         <v>4.417138994944404</v>
       </c>
       <c r="J187" t="n">
-        <v>0.07028695927544414</v>
+        <v>0.05792138499660877</v>
       </c>
       <c r="K187" t="n">
         <v>4.417138994944404</v>
       </c>
       <c r="L187" t="n">
-        <v>0.07628756907583535</v>
+        <v>0.1101585124374933</v>
       </c>
       <c r="M187" t="n">
         <v>4.417138994944404</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1135659659206727</v>
+        <v>0.1040159992132685</v>
       </c>
       <c r="O187" t="n">
         <v>4.417138994944404</v>
@@ -6063,25 +6063,25 @@
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.07100378559027271</v>
+        <v>0.05824415546772389</v>
       </c>
       <c r="G188" t="n">
         <v>4.453345052280014</v>
       </c>
       <c r="J188" t="n">
-        <v>0.07100378559027271</v>
+        <v>0.05824415546772389</v>
       </c>
       <c r="K188" t="n">
         <v>4.453345052280014</v>
       </c>
       <c r="L188" t="n">
-        <v>0.07545575425385762</v>
+        <v>0.1047372713146008</v>
       </c>
       <c r="M188" t="n">
         <v>4.453345052280014</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1135410191299301</v>
+        <v>0.1063345344893029</v>
       </c>
       <c r="O188" t="n">
         <v>4.453345052280014</v>
@@ -6089,25 +6089,25 @@
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.06618709320315166</v>
+        <v>0.05727251985432301</v>
       </c>
       <c r="G189" t="n">
         <v>4.489551109615624</v>
       </c>
       <c r="J189" t="n">
-        <v>0.06618709320315166</v>
+        <v>0.05727251985432301</v>
       </c>
       <c r="K189" t="n">
         <v>4.489551109615624</v>
       </c>
       <c r="L189" t="n">
-        <v>0.07364906045780692</v>
+        <v>0.1054361698397045</v>
       </c>
       <c r="M189" t="n">
         <v>4.489551109615624</v>
       </c>
       <c r="N189" t="n">
-        <v>0.113712216530582</v>
+        <v>0.09912226913624089</v>
       </c>
       <c r="O189" t="n">
         <v>4.489551109615624</v>
@@ -6115,25 +6115,25 @@
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.06752305044504374</v>
+        <v>0.0557388880293815</v>
       </c>
       <c r="G190" t="n">
         <v>4.525757166951233</v>
       </c>
       <c r="J190" t="n">
-        <v>0.06752305044504374</v>
+        <v>0.0557388880293815</v>
       </c>
       <c r="K190" t="n">
         <v>4.525757166951233</v>
       </c>
       <c r="L190" t="n">
-        <v>0.07670408934620931</v>
+        <v>0.104365535752801</v>
       </c>
       <c r="M190" t="n">
         <v>4.525757166951233</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1147543620769885</v>
+        <v>0.101397441266571</v>
       </c>
       <c r="O190" t="n">
         <v>4.525757166951233</v>
@@ -6141,25 +6141,25 @@
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.07071081411664652</v>
+        <v>0.05473814665970647</v>
       </c>
       <c r="G191" t="n">
         <v>4.561963224286843</v>
       </c>
       <c r="J191" t="n">
-        <v>0.07071081411664652</v>
+        <v>0.05473814665970647</v>
       </c>
       <c r="K191" t="n">
         <v>4.561963224286843</v>
       </c>
       <c r="L191" t="n">
-        <v>0.07417888604952326</v>
+        <v>0.1019397213323233</v>
       </c>
       <c r="M191" t="n">
         <v>4.561963224286843</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1148023331070773</v>
+        <v>0.1009890875619285</v>
       </c>
       <c r="O191" t="n">
         <v>4.561963224286843</v>
@@ -6167,25 +6167,25 @@
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.0655439226829483</v>
+        <v>0.057404216847308</v>
       </c>
       <c r="G192" t="n">
         <v>4.598169281622453</v>
       </c>
       <c r="J192" t="n">
-        <v>0.0655439226829483</v>
+        <v>0.057404216847308</v>
       </c>
       <c r="K192" t="n">
         <v>4.598169281622453</v>
       </c>
       <c r="L192" t="n">
-        <v>0.07551412573479957</v>
+        <v>0.1087869094839705</v>
       </c>
       <c r="M192" t="n">
         <v>4.598169281622453</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1189924876136697</v>
+        <v>0.09921971189532126</v>
       </c>
       <c r="O192" t="n">
         <v>4.598169281622453</v>
@@ -6193,25 +6193,25 @@
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.06874819879986795</v>
+        <v>0.05672293058263195</v>
       </c>
       <c r="G193" t="n">
         <v>4.634375338958063</v>
       </c>
       <c r="J193" t="n">
-        <v>0.06874819879986795</v>
+        <v>0.05672293058263195</v>
       </c>
       <c r="K193" t="n">
         <v>4.634375338958063</v>
       </c>
       <c r="L193" t="n">
-        <v>0.07347837637923027</v>
+        <v>0.09972839622742063</v>
       </c>
       <c r="M193" t="n">
         <v>4.634375338958063</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1141007776988232</v>
+        <v>0.1029737176585162</v>
       </c>
       <c r="O193" t="n">
         <v>4.634375338958063</v>
@@ -6219,25 +6219,25 @@
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.06578937864385832</v>
+        <v>0.05617887049694763</v>
       </c>
       <c r="G194" t="n">
         <v>4.670581396293673</v>
       </c>
       <c r="J194" t="n">
-        <v>0.06578937864385832</v>
+        <v>0.05617887049694763</v>
       </c>
       <c r="K194" t="n">
         <v>4.670581396293673</v>
       </c>
       <c r="L194" t="n">
-        <v>0.0715485811351548</v>
+        <v>0.1008227429308931</v>
       </c>
       <c r="M194" t="n">
         <v>4.670581396293673</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1147693205223446</v>
+        <v>0.1029354859679311</v>
       </c>
       <c r="O194" t="n">
         <v>4.670581396293673</v>
@@ -6245,25 +6245,25 @@
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.0678498561377011</v>
+        <v>0.05457279986531597</v>
       </c>
       <c r="G195" t="n">
         <v>4.706787453629283</v>
       </c>
       <c r="J195" t="n">
-        <v>0.0678498561377011</v>
+        <v>0.05457279986531597</v>
       </c>
       <c r="K195" t="n">
         <v>4.706787453629283</v>
       </c>
       <c r="L195" t="n">
-        <v>0.07485725643490393</v>
+        <v>0.1033863578752248</v>
       </c>
       <c r="M195" t="n">
         <v>4.706787453629283</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1116411770579707</v>
+        <v>0.1034395423610401</v>
       </c>
       <c r="O195" t="n">
         <v>4.706787453629283</v>
@@ -6271,25 +6271,25 @@
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.06709251107478588</v>
+        <v>0.05379785531679026</v>
       </c>
       <c r="G196" t="n">
         <v>4.742993510964893</v>
       </c>
       <c r="J196" t="n">
-        <v>0.06709251107478588</v>
+        <v>0.05379785531679026</v>
       </c>
       <c r="K196" t="n">
         <v>4.742993510964893</v>
       </c>
       <c r="L196" t="n">
-        <v>0.07171813269544082</v>
+        <v>0.1035229506106628</v>
       </c>
       <c r="M196" t="n">
         <v>4.742993510964893</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1125052711362172</v>
+        <v>0.1020021624980716</v>
       </c>
       <c r="O196" t="n">
         <v>4.742993510964893</v>
@@ -6297,25 +6297,25 @@
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.06820889583810641</v>
+        <v>0.05794844645917811</v>
       </c>
       <c r="G197" t="n">
         <v>4.779199568300502</v>
       </c>
       <c r="J197" t="n">
-        <v>0.06820889583810641</v>
+        <v>0.05794844645917811</v>
       </c>
       <c r="K197" t="n">
         <v>4.779199568300502</v>
       </c>
       <c r="L197" t="n">
-        <v>0.07312878641841841</v>
+        <v>0.09757880157869699</v>
       </c>
       <c r="M197" t="n">
         <v>4.779199568300502</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1104532729070922</v>
+        <v>0.100633537645513</v>
       </c>
       <c r="O197" t="n">
         <v>4.779199568300502</v>
@@ -6323,25 +6323,25 @@
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.06597766957633913</v>
+        <v>0.05833704339294568</v>
       </c>
       <c r="G198" t="n">
         <v>4.815405625636112</v>
       </c>
       <c r="J198" t="n">
-        <v>0.06597766957633913</v>
+        <v>0.05833704339294568</v>
       </c>
       <c r="K198" t="n">
         <v>4.815405625636112</v>
       </c>
       <c r="L198" t="n">
-        <v>0.06878901262729814</v>
+        <v>0.09499500522207224</v>
       </c>
       <c r="M198" t="n">
         <v>4.815405625636112</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1153775044166697</v>
+        <v>0.1075010105935233</v>
       </c>
       <c r="O198" t="n">
         <v>4.815405625636112</v>
@@ -6349,25 +6349,25 @@
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.06629462782284563</v>
+        <v>0.05452088747611105</v>
       </c>
       <c r="G199" t="n">
         <v>4.851611682971722</v>
       </c>
       <c r="J199" t="n">
-        <v>0.06629462782284563</v>
+        <v>0.05452088747611105</v>
       </c>
       <c r="K199" t="n">
         <v>4.851611682971722</v>
       </c>
       <c r="L199" t="n">
-        <v>0.07129198344441816</v>
+        <v>0.09461864313993996</v>
       </c>
       <c r="M199" t="n">
         <v>4.851611682971722</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1150523778777279</v>
+        <v>0.1058129828761658</v>
       </c>
       <c r="O199" t="n">
         <v>4.851611682971722</v>
@@ -6375,25 +6375,25 @@
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.06594529173245932</v>
+        <v>0.05733516424082901</v>
       </c>
       <c r="G200" t="n">
         <v>4.887817740307332</v>
       </c>
       <c r="J200" t="n">
-        <v>0.06594529173245932</v>
+        <v>0.05733516424082901</v>
       </c>
       <c r="K200" t="n">
         <v>4.887817740307332</v>
       </c>
       <c r="L200" t="n">
-        <v>0.06621115042209935</v>
+        <v>0.09582545106067672</v>
       </c>
       <c r="M200" t="n">
         <v>4.887817740307332</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1193810894549924</v>
+        <v>0.1084337103462853</v>
       </c>
       <c r="O200" t="n">
         <v>4.887817740307332</v>
@@ -6401,25 +6401,25 @@
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.06551635133195684</v>
+        <v>0.05528071991970129</v>
       </c>
       <c r="G201" t="n">
         <v>4.924023797642942</v>
       </c>
       <c r="J201" t="n">
-        <v>0.06551635133195684</v>
+        <v>0.05528071991970129</v>
       </c>
       <c r="K201" t="n">
         <v>4.924023797642942</v>
       </c>
       <c r="L201" t="n">
-        <v>0.0672353975600409</v>
+        <v>0.08850449280198469</v>
       </c>
       <c r="M201" t="n">
         <v>4.924023797642942</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1192495673659304</v>
+        <v>0.1052914063437016</v>
       </c>
       <c r="O201" t="n">
         <v>4.924023797642942</v>
@@ -6427,25 +6427,25 @@
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.06694911619015344</v>
+        <v>0.05705660906651274</v>
       </c>
       <c r="G202" t="n">
         <v>4.960229854978552</v>
       </c>
       <c r="J202" t="n">
-        <v>0.06694911619015344</v>
+        <v>0.05705660906651274</v>
       </c>
       <c r="K202" t="n">
         <v>4.960229854978552</v>
       </c>
       <c r="L202" t="n">
-        <v>0.06400949330495095</v>
+        <v>0.09028162841296428</v>
       </c>
       <c r="M202" t="n">
         <v>4.960229854978552</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1193575846505142</v>
+        <v>0.1079928059345023</v>
       </c>
       <c r="O202" t="n">
         <v>4.960229854978552</v>
@@ -6453,25 +6453,25 @@
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.06328433941262984</v>
+        <v>0.05551983631256621</v>
       </c>
       <c r="G203" t="n">
         <v>4.996435912314162</v>
       </c>
       <c r="J203" t="n">
-        <v>0.06328433941262984</v>
+        <v>0.05551983631256621</v>
       </c>
       <c r="K203" t="n">
         <v>4.996435912314162</v>
       </c>
       <c r="L203" t="n">
-        <v>0.06567076971912808</v>
+        <v>0.08669367020672918</v>
       </c>
       <c r="M203" t="n">
         <v>4.996435912314162</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1163435827786706</v>
+        <v>0.1033382650129896</v>
       </c>
       <c r="O203" t="n">
         <v>4.996435912314162</v>
@@ -6479,25 +6479,25 @@
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.06578924740567398</v>
+        <v>0.05770762566274063</v>
       </c>
       <c r="G204" t="n">
         <v>5.032641969649771</v>
       </c>
       <c r="J204" t="n">
-        <v>0.06578924740567398</v>
+        <v>0.05770762566274063</v>
       </c>
       <c r="K204" t="n">
         <v>5.032641969649771</v>
       </c>
       <c r="L204" t="n">
-        <v>0.06454675077123073</v>
+        <v>0.08686860916827259</v>
       </c>
       <c r="M204" t="n">
         <v>5.032641969649771</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1194339320518475</v>
+        <v>0.1093580515794843</v>
       </c>
       <c r="O204" t="n">
         <v>5.032641969649771</v>
@@ -6505,25 +6505,25 @@
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.06317038009530886</v>
+        <v>0.05646792953054394</v>
       </c>
       <c r="G205" t="n">
         <v>5.068848026985381</v>
       </c>
       <c r="J205" t="n">
-        <v>0.06317038009530886</v>
+        <v>0.05646792953054394</v>
       </c>
       <c r="K205" t="n">
         <v>5.068848026985381</v>
       </c>
       <c r="L205" t="n">
-        <v>0.06145296928574617</v>
+        <v>0.08253355051705343</v>
       </c>
       <c r="M205" t="n">
         <v>5.068848026985381</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1116628051245547</v>
+        <v>0.1046512842231186</v>
       </c>
       <c r="O205" t="n">
         <v>5.068848026985381</v>
@@ -6531,25 +6531,25 @@
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.06508452447597621</v>
+        <v>0.05791101026681248</v>
       </c>
       <c r="G206" t="n">
         <v>5.105054084320991</v>
       </c>
       <c r="J206" t="n">
-        <v>0.06508452447597621</v>
+        <v>0.05791101026681248</v>
       </c>
       <c r="K206" t="n">
         <v>5.105054084320991</v>
       </c>
       <c r="L206" t="n">
-        <v>0.06450536491058903</v>
+        <v>0.08752391042512131</v>
       </c>
       <c r="M206" t="n">
         <v>5.105054084320991</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1154479716245003</v>
+        <v>0.103656398043177</v>
       </c>
       <c r="O206" t="n">
         <v>5.105054084320991</v>
@@ -6557,25 +6557,25 @@
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.06355295776215153</v>
+        <v>0.05533560832447967</v>
       </c>
       <c r="G207" t="n">
         <v>5.141260141656601</v>
       </c>
       <c r="J207" t="n">
-        <v>0.06355295776215153</v>
+        <v>0.05533560832447967</v>
       </c>
       <c r="K207" t="n">
         <v>5.141260141656601</v>
       </c>
       <c r="L207" t="n">
-        <v>0.06334712582511742</v>
+        <v>0.08444347695943491</v>
       </c>
       <c r="M207" t="n">
         <v>5.141260141656601</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1184995311488839</v>
+        <v>0.107773544921053</v>
       </c>
       <c r="O207" t="n">
         <v>5.141260141656601</v>
@@ -6583,25 +6583,25 @@
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.06593970300721488</v>
+        <v>0.05726984609608653</v>
       </c>
       <c r="G208" t="n">
         <v>5.177466198992211</v>
       </c>
       <c r="J208" t="n">
-        <v>0.06593970300721488</v>
+        <v>0.05726984609608653</v>
       </c>
       <c r="K208" t="n">
         <v>5.177466198992211</v>
       </c>
       <c r="L208" t="n">
-        <v>0.0611803353921922</v>
+        <v>0.07867924703444829</v>
       </c>
       <c r="M208" t="n">
         <v>5.177466198992211</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1176061270426857</v>
+        <v>0.1035720804580701</v>
       </c>
       <c r="O208" t="n">
         <v>5.177466198992211</v>
@@ -6609,25 +6609,25 @@
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.06540084062381439</v>
+        <v>0.05632926325223297</v>
       </c>
       <c r="G209" t="n">
         <v>5.213672256327821</v>
       </c>
       <c r="J209" t="n">
-        <v>0.06540084062381439</v>
+        <v>0.05632926325223297</v>
       </c>
       <c r="K209" t="n">
         <v>5.213672256327821</v>
       </c>
       <c r="L209" t="n">
-        <v>0.06045348963769614</v>
+        <v>0.08301136834607531</v>
       </c>
       <c r="M209" t="n">
         <v>5.213672256327821</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1169968074874848</v>
+        <v>0.1122926472890394</v>
       </c>
       <c r="O209" t="n">
         <v>5.213672256327821</v>
@@ -6635,25 +6635,25 @@
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.06592779729031549</v>
+        <v>0.05556848205420766</v>
       </c>
       <c r="G210" t="n">
         <v>5.24987831366343</v>
       </c>
       <c r="J210" t="n">
-        <v>0.06592779729031549</v>
+        <v>0.05556848205420766</v>
       </c>
       <c r="K210" t="n">
         <v>5.24987831366343</v>
       </c>
       <c r="L210" t="n">
-        <v>0.05812347408806626</v>
+        <v>0.08075540111920053</v>
       </c>
       <c r="M210" t="n">
         <v>5.24987831366343</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1122955711345612</v>
+        <v>0.1121900968584677</v>
       </c>
       <c r="O210" t="n">
         <v>5.24987831366343</v>
@@ -6661,25 +6661,25 @@
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.06487270735884197</v>
+        <v>0.0563606814765442</v>
       </c>
       <c r="G211" t="n">
         <v>5.28608437099904</v>
       </c>
       <c r="J211" t="n">
-        <v>0.06487270735884197</v>
+        <v>0.0563606814765442</v>
       </c>
       <c r="K211" t="n">
         <v>5.28608437099904</v>
       </c>
       <c r="L211" t="n">
-        <v>0.05725068038986982</v>
+        <v>0.07970054162374329</v>
       </c>
       <c r="M211" t="n">
         <v>5.28608437099904</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1132103866505813</v>
+        <v>0.109237293469456</v>
       </c>
       <c r="O211" t="n">
         <v>5.28608437099904</v>
@@ -6687,25 +6687,25 @@
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.06536004034898008</v>
+        <v>0.05623430182639833</v>
       </c>
       <c r="G212" t="n">
         <v>5.32229042833465</v>
       </c>
       <c r="J212" t="n">
-        <v>0.06536004034898008</v>
+        <v>0.05623430182639833</v>
       </c>
       <c r="K212" t="n">
         <v>5.32229042833465</v>
       </c>
       <c r="L212" t="n">
-        <v>0.05795405103263684</v>
+        <v>0.07906766283843822</v>
       </c>
       <c r="M212" t="n">
         <v>5.32229042833465</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1108278988698524</v>
+        <v>0.1053156233130754</v>
       </c>
       <c r="O212" t="n">
         <v>5.32229042833465</v>
@@ -6713,25 +6713,25 @@
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.06407327574397943</v>
+        <v>0.0571390652509839</v>
       </c>
       <c r="G213" t="n">
         <v>5.35849648567026</v>
       </c>
       <c r="J213" t="n">
-        <v>0.06407327574397943</v>
+        <v>0.0571390652509839</v>
       </c>
       <c r="K213" t="n">
         <v>5.35849648567026</v>
       </c>
       <c r="L213" t="n">
-        <v>0.06024484877632658</v>
+        <v>0.07837733603649785</v>
       </c>
       <c r="M213" t="n">
         <v>5.35849648567026</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1150559550214605</v>
+        <v>0.1028176499461945</v>
       </c>
       <c r="O213" t="n">
         <v>5.35849648567026</v>
@@ -6739,25 +6739,25 @@
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.06565650831595241</v>
+        <v>0.05590131959902057</v>
       </c>
       <c r="G214" t="n">
         <v>5.39470254300587</v>
       </c>
       <c r="J214" t="n">
-        <v>0.06565650831595241</v>
+        <v>0.05590131959902057</v>
       </c>
       <c r="K214" t="n">
         <v>5.39470254300587</v>
       </c>
       <c r="L214" t="n">
-        <v>0.05632832362144184</v>
+        <v>0.07806737979851211</v>
       </c>
       <c r="M214" t="n">
         <v>5.39470254300587</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1115937066551445</v>
+        <v>0.1044019418732782</v>
       </c>
       <c r="O214" t="n">
         <v>5.39470254300587</v>
@@ -6765,25 +6765,25 @@
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.0653505449417173</v>
+        <v>0.05733728782522876</v>
       </c>
       <c r="G215" t="n">
         <v>5.43090860034148</v>
       </c>
       <c r="J215" t="n">
-        <v>0.0653505449417173</v>
+        <v>0.05733728782522876</v>
       </c>
       <c r="K215" t="n">
         <v>5.43090860034148</v>
       </c>
       <c r="L215" t="n">
-        <v>0.06005896841653145</v>
+        <v>0.08035570165226474</v>
       </c>
       <c r="M215" t="n">
         <v>5.43090860034148</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1156870423736217</v>
+        <v>0.109514811902729</v>
       </c>
       <c r="O215" t="n">
         <v>5.43090860034148</v>
@@ -6791,25 +6791,25 @@
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.06366926263285624</v>
+        <v>0.05413844779108046</v>
       </c>
       <c r="G216" t="n">
         <v>5.46711465767709</v>
       </c>
       <c r="J216" t="n">
-        <v>0.06366926263285624</v>
+        <v>0.05413844779108046</v>
       </c>
       <c r="K216" t="n">
         <v>5.46711465767709</v>
       </c>
       <c r="L216" t="n">
-        <v>0.05755122610533972</v>
+        <v>0.07866574761815545</v>
       </c>
       <c r="M216" t="n">
         <v>5.46711465767709</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1104165508562306</v>
+        <v>0.104275329568889</v>
       </c>
       <c r="O216" t="n">
         <v>5.46711465767709</v>
@@ -6817,25 +6817,25 @@
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.0605866938332482</v>
+        <v>0.05650995315867511</v>
       </c>
       <c r="G217" t="n">
         <v>5.503320715012699</v>
       </c>
       <c r="J217" t="n">
-        <v>0.0605866938332482</v>
+        <v>0.05650995315867511</v>
       </c>
       <c r="K217" t="n">
         <v>5.503320715012699</v>
       </c>
       <c r="L217" t="n">
-        <v>0.05866432649996256</v>
+        <v>0.07413870834505892</v>
       </c>
       <c r="M217" t="n">
         <v>5.503320715012699</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1118255179867703</v>
+        <v>0.1047468705694548</v>
       </c>
       <c r="O217" t="n">
         <v>5.503320715012699</v>
@@ -6843,25 +6843,25 @@
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.06075875801884587</v>
+        <v>0.05603600602726748</v>
       </c>
       <c r="G218" t="n">
         <v>5.539526772348309</v>
       </c>
       <c r="J218" t="n">
-        <v>0.06075875801884587</v>
+        <v>0.05603600602726748</v>
       </c>
       <c r="K218" t="n">
         <v>5.539526772348309</v>
       </c>
       <c r="L218" t="n">
-        <v>0.05729892098010459</v>
+        <v>0.07273987853400778</v>
       </c>
       <c r="M218" t="n">
         <v>5.539526772348309</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1136152415070388</v>
+        <v>0.1026764473269968</v>
       </c>
       <c r="O218" t="n">
         <v>5.539526772348309</v>
@@ -6869,25 +6869,25 @@
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.0637819134280124</v>
+        <v>0.05517809928316745</v>
       </c>
       <c r="G219" t="n">
         <v>5.575732829683919</v>
       </c>
       <c r="J219" t="n">
-        <v>0.0637819134280124</v>
+        <v>0.05517809928316745</v>
       </c>
       <c r="K219" t="n">
         <v>5.575732829683919</v>
       </c>
       <c r="L219" t="n">
-        <v>0.05770248401029798</v>
+        <v>0.07281299870975963</v>
       </c>
       <c r="M219" t="n">
         <v>5.575732829683919</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1098851546440277</v>
+        <v>0.1028628109841392</v>
       </c>
       <c r="O219" t="n">
         <v>5.575732829683919</v>
@@ -6895,25 +6895,25 @@
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.0618478727429824</v>
+        <v>0.05466423429611172</v>
       </c>
       <c r="G220" t="n">
         <v>5.611938887019529</v>
       </c>
       <c r="J220" t="n">
-        <v>0.0618478727429824</v>
+        <v>0.05466423429611172</v>
       </c>
       <c r="K220" t="n">
         <v>5.611938887019529</v>
       </c>
       <c r="L220" t="n">
-        <v>0.05903147102183299</v>
+        <v>0.07101150492970747</v>
       </c>
       <c r="M220" t="n">
         <v>5.611938887019529</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1140071812682383</v>
+        <v>0.1071745010190146</v>
       </c>
       <c r="O220" t="n">
         <v>5.611938887019529</v>
@@ -6921,25 +6921,25 @@
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.06034197998223138</v>
+        <v>0.05232817337814768</v>
       </c>
       <c r="G221" t="n">
         <v>5.648144944355139</v>
       </c>
       <c r="J221" t="n">
-        <v>0.06034197998223138</v>
+        <v>0.05232817337814768</v>
       </c>
       <c r="K221" t="n">
         <v>5.648144944355139</v>
       </c>
       <c r="L221" t="n">
-        <v>0.0550781790245151</v>
+        <v>0.07004360801460137</v>
       </c>
       <c r="M221" t="n">
         <v>5.648144944355139</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1161890217161943</v>
+        <v>0.1011879996473875</v>
       </c>
       <c r="O221" t="n">
         <v>5.648144944355139</v>
@@ -6947,25 +6947,25 @@
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.06333741637131723</v>
+        <v>0.05602477073352276</v>
       </c>
       <c r="G222" t="n">
         <v>5.684351001690749</v>
       </c>
       <c r="J222" t="n">
-        <v>0.06333741637131723</v>
+        <v>0.05602477073352276</v>
       </c>
       <c r="K222" t="n">
         <v>5.684351001690749</v>
       </c>
       <c r="L222" t="n">
-        <v>0.05910766628333951</v>
+        <v>0.0727741019879295</v>
       </c>
       <c r="M222" t="n">
         <v>5.684351001690749</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1160935444565296</v>
+        <v>0.1025071415135351</v>
       </c>
       <c r="O222" t="n">
         <v>5.684351001690749</v>
@@ -6973,25 +6973,25 @@
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.06124421240310601</v>
+        <v>0.05292317770263927</v>
       </c>
       <c r="G223" t="n">
         <v>5.720557059026359</v>
       </c>
       <c r="J223" t="n">
-        <v>0.06124421240310601</v>
+        <v>0.05292317770263927</v>
       </c>
       <c r="K223" t="n">
         <v>5.720557059026359</v>
       </c>
       <c r="L223" t="n">
-        <v>0.05560633823499129</v>
+        <v>0.07199497391820252</v>
       </c>
       <c r="M223" t="n">
         <v>5.720557059026359</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1077034642156671</v>
+        <v>0.1045246070160444</v>
       </c>
       <c r="O223" t="n">
         <v>5.720557059026359</v>
@@ -6999,25 +6999,25 @@
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.06074348255328572</v>
+        <v>0.05637833662208398</v>
       </c>
       <c r="G224" t="n">
         <v>5.756763116361968</v>
       </c>
       <c r="J224" t="n">
-        <v>0.06074348255328572</v>
+        <v>0.05637833662208398</v>
       </c>
       <c r="K224" t="n">
         <v>5.756763116361968</v>
       </c>
       <c r="L224" t="n">
-        <v>0.05631182978451985</v>
+        <v>0.06975396800684369</v>
       </c>
       <c r="M224" t="n">
         <v>5.756763116361968</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1103696850911898</v>
+        <v>0.09816196905776409</v>
       </c>
       <c r="O224" t="n">
         <v>5.756763116361968</v>
@@ -7025,25 +7025,25 @@
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.06232269646301081</v>
+        <v>0.05411951131163569</v>
       </c>
       <c r="G225" t="n">
         <v>5.792969173697578</v>
       </c>
       <c r="J225" t="n">
-        <v>0.06232269646301081</v>
+        <v>0.05411951131163569</v>
       </c>
       <c r="K225" t="n">
         <v>5.792969173697578</v>
       </c>
       <c r="L225" t="n">
-        <v>0.05533536525965096</v>
+        <v>0.0705995300215152</v>
       </c>
       <c r="M225" t="n">
         <v>5.792969173697578</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1152285478279592</v>
+        <v>0.1025447410868592</v>
       </c>
       <c r="O225" t="n">
         <v>5.792969173697578</v>
@@ -7051,25 +7051,25 @@
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.0621327988847314</v>
+        <v>0.05358981163765606</v>
       </c>
       <c r="G226" t="n">
         <v>5.829175231033188</v>
       </c>
       <c r="J226" t="n">
-        <v>0.0621327988847314</v>
+        <v>0.05358981163765606</v>
       </c>
       <c r="K226" t="n">
         <v>5.829175231033188</v>
       </c>
       <c r="L226" t="n">
-        <v>0.05681697849643026</v>
+        <v>0.06958029238237531</v>
       </c>
       <c r="M226" t="n">
         <v>5.829175231033188</v>
       </c>
       <c r="N226" t="n">
-        <v>0.110340860161224</v>
+        <v>0.09861382110948312</v>
       </c>
       <c r="O226" t="n">
         <v>5.829175231033188</v>
@@ -7077,25 +7077,25 @@
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.06066643900633055</v>
+        <v>0.05128392524891484</v>
       </c>
       <c r="G227" t="n">
         <v>5.865381288368798</v>
       </c>
       <c r="J227" t="n">
-        <v>0.06066643900633055</v>
+        <v>0.05128392524891484</v>
       </c>
       <c r="K227" t="n">
         <v>5.865381288368798</v>
       </c>
       <c r="L227" t="n">
-        <v>0.05328913138897622</v>
+        <v>0.06797016639042815</v>
       </c>
       <c r="M227" t="n">
         <v>5.865381288368798</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1130072326730173</v>
+        <v>0.1023219896648426</v>
       </c>
       <c r="O227" t="n">
         <v>5.865381288368798</v>
@@ -7103,25 +7103,25 @@
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.06159969307308381</v>
+        <v>0.05267269758697866</v>
       </c>
       <c r="G228" t="n">
         <v>5.901587345704408</v>
       </c>
       <c r="J228" t="n">
-        <v>0.06159969307308381</v>
+        <v>0.05267269758697866</v>
       </c>
       <c r="K228" t="n">
         <v>5.901587345704408</v>
       </c>
       <c r="L228" t="n">
-        <v>0.05591627020935199</v>
+        <v>0.07281547249492536</v>
       </c>
       <c r="M228" t="n">
         <v>5.901587345704408</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1054813759615614</v>
+        <v>0.0977884004206911</v>
       </c>
       <c r="O228" t="n">
         <v>5.901587345704408</v>
@@ -7129,25 +7129,25 @@
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.05689349215286578</v>
+        <v>0.051802845533084</v>
       </c>
       <c r="G229" t="n">
         <v>5.937793403040018</v>
       </c>
       <c r="J229" t="n">
-        <v>0.05689349215286578</v>
+        <v>0.051802845533084</v>
       </c>
       <c r="K229" t="n">
         <v>5.937793403040018</v>
       </c>
       <c r="L229" t="n">
-        <v>0.05670198563832982</v>
+        <v>0.06945739901030779</v>
       </c>
       <c r="M229" t="n">
         <v>5.937793403040018</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1065719549930334</v>
+        <v>0.09999623639522175</v>
       </c>
       <c r="O229" t="n">
         <v>5.937793403040018</v>
@@ -7155,25 +7155,25 @@
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.0609559843397905</v>
+        <v>0.05296444553308042</v>
       </c>
       <c r="G230" t="n">
         <v>5.973999460375628</v>
       </c>
       <c r="J230" t="n">
-        <v>0.0609559843397905</v>
+        <v>0.05296444553308042</v>
       </c>
       <c r="K230" t="n">
         <v>5.973999460375628</v>
       </c>
       <c r="L230" t="n">
-        <v>0.05348497625742276</v>
+        <v>0.06839282589255315</v>
       </c>
       <c r="M230" t="n">
         <v>5.973999460375628</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1041076256125855</v>
+        <v>0.09586794941803231</v>
       </c>
       <c r="O230" t="n">
         <v>5.973999460375628</v>
@@ -7181,25 +7181,25 @@
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.05972175220599159</v>
+        <v>0.05463097180918663</v>
       </c>
       <c r="G231" t="n">
         <v>6.010205517711237</v>
       </c>
       <c r="J231" t="n">
-        <v>0.05972175220599159</v>
+        <v>0.05463097180918663</v>
       </c>
       <c r="K231" t="n">
         <v>6.010205517711237</v>
       </c>
       <c r="L231" t="n">
-        <v>0.05506927304690206</v>
+        <v>0.06682092089166387</v>
       </c>
       <c r="M231" t="n">
         <v>6.010205517711237</v>
       </c>
       <c r="N231" t="n">
-        <v>0.1058069439420369</v>
+        <v>0.09701759528696868</v>
       </c>
       <c r="O231" t="n">
         <v>6.010205517711237</v>
@@ -7207,25 +7207,25 @@
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.05861306672478576</v>
+        <v>0.05203096429843235</v>
       </c>
       <c r="G232" t="n">
         <v>6.046411575046847</v>
       </c>
       <c r="J232" t="n">
-        <v>0.05861306672478576</v>
+        <v>0.05203096429843235</v>
       </c>
       <c r="K232" t="n">
         <v>6.046411575046847</v>
       </c>
       <c r="L232" t="n">
-        <v>0.05300426936561226</v>
+        <v>0.07164302626430813</v>
       </c>
       <c r="M232" t="n">
         <v>6.046411575046847</v>
       </c>
       <c r="N232" t="n">
-        <v>0.111493765827802</v>
+        <v>0.09239073584570029</v>
       </c>
       <c r="O232" t="n">
         <v>6.046411575046847</v>
@@ -7233,25 +7233,25 @@
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.05616800232130004</v>
+        <v>0.05073902479161013</v>
       </c>
       <c r="G233" t="n">
         <v>6.082617632382457</v>
       </c>
       <c r="J233" t="n">
-        <v>0.05616800232130004</v>
+        <v>0.05073902479161013</v>
       </c>
       <c r="K233" t="n">
         <v>6.082617632382457</v>
       </c>
       <c r="L233" t="n">
-        <v>0.05169845717255799</v>
+        <v>0.06790564525911552</v>
       </c>
       <c r="M233" t="n">
         <v>6.082617632382457</v>
       </c>
       <c r="N233" t="n">
-        <v>0.1075115871662747</v>
+        <v>0.09296450454800556</v>
       </c>
       <c r="O233" t="n">
         <v>6.082617632382457</v>
@@ -7259,25 +7259,25 @@
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.05575309441166487</v>
+        <v>0.05213454696111604</v>
       </c>
       <c r="G234" t="n">
         <v>6.118823689718067</v>
       </c>
       <c r="J234" t="n">
-        <v>0.05575309441166487</v>
+        <v>0.05213454696111604</v>
       </c>
       <c r="K234" t="n">
         <v>6.118823689718067</v>
       </c>
       <c r="L234" t="n">
-        <v>0.0547201024444597</v>
+        <v>0.06562499083706071</v>
       </c>
       <c r="M234" t="n">
         <v>6.118823689718067</v>
       </c>
       <c r="N234" t="n">
-        <v>0.1089291497446378</v>
+        <v>0.09460137118543979</v>
       </c>
       <c r="O234" t="n">
         <v>6.118823689718067</v>
@@ -7285,25 +7285,25 @@
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.05588823755350605</v>
+        <v>0.05137956921008106</v>
       </c>
       <c r="G235" t="n">
         <v>6.155029747053677</v>
       </c>
       <c r="J235" t="n">
-        <v>0.05588823755350605</v>
+        <v>0.05137956921008106</v>
       </c>
       <c r="K235" t="n">
         <v>6.155029747053677</v>
       </c>
       <c r="L235" t="n">
-        <v>0.05209697182847972</v>
+        <v>0.06641117386262833</v>
       </c>
       <c r="M235" t="n">
         <v>6.155029747053677</v>
       </c>
       <c r="N235" t="n">
-        <v>0.1058018872984498</v>
+        <v>0.09505709494027828</v>
       </c>
       <c r="O235" t="n">
         <v>6.155029747053677</v>
@@ -7311,25 +7311,25 @@
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.05871801782126916</v>
+        <v>0.05113993697575633</v>
       </c>
       <c r="G236" t="n">
         <v>6.191235804389287</v>
       </c>
       <c r="J236" t="n">
-        <v>0.05871801782126916</v>
+        <v>0.05113993697575633</v>
       </c>
       <c r="K236" t="n">
         <v>6.191235804389287</v>
       </c>
       <c r="L236" t="n">
-        <v>0.05057913327437651</v>
+        <v>0.06952325835538296</v>
       </c>
       <c r="M236" t="n">
         <v>6.191235804389287</v>
       </c>
       <c r="N236" t="n">
-        <v>0.1044630744898845</v>
+        <v>0.09524164090364637</v>
       </c>
       <c r="O236" t="n">
         <v>6.191235804389287</v>
@@ -7337,25 +7337,25 @@
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.05374527215416763</v>
+        <v>0.05168232890645081</v>
       </c>
       <c r="G237" t="n">
         <v>6.227441861724897</v>
       </c>
       <c r="J237" t="n">
-        <v>0.05374527215416763</v>
+        <v>0.05168232890645081</v>
       </c>
       <c r="K237" t="n">
         <v>6.227441861724897</v>
       </c>
       <c r="L237" t="n">
-        <v>0.05037004693716898</v>
+        <v>0.06806112421695658</v>
       </c>
       <c r="M237" t="n">
         <v>6.227441861724897</v>
       </c>
       <c r="N237" t="n">
-        <v>0.1104248773314318</v>
+        <v>0.08668566458716516</v>
       </c>
       <c r="O237" t="n">
         <v>6.227441861724897</v>
@@ -7363,25 +7363,25 @@
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.05679729477696248</v>
+        <v>0.04918283199579114</v>
       </c>
       <c r="G238" t="n">
         <v>6.263647919060507</v>
       </c>
       <c r="J238" t="n">
-        <v>0.05679729477696248</v>
+        <v>0.04918283199579114</v>
       </c>
       <c r="K238" t="n">
         <v>6.263647919060507</v>
       </c>
       <c r="L238" t="n">
-        <v>0.05270311826628876</v>
+        <v>0.07071838631421505</v>
       </c>
       <c r="M238" t="n">
         <v>6.263647919060507</v>
       </c>
       <c r="N238" t="n">
-        <v>0.1028374979041365</v>
+        <v>0.09397123800045674</v>
       </c>
       <c r="O238" t="n">
         <v>6.263647919060507</v>
@@ -7389,25 +7389,25 @@
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.05533506276197094</v>
+        <v>0.05196573445573111</v>
       </c>
       <c r="G239" t="n">
         <v>6.299853976396117</v>
       </c>
       <c r="J239" t="n">
-        <v>0.05533506276197094</v>
+        <v>0.05196573445573111</v>
       </c>
       <c r="K239" t="n">
         <v>6.299853976396117</v>
       </c>
       <c r="L239" t="n">
-        <v>0.05113766606634992</v>
+        <v>0.06934580164016196</v>
       </c>
       <c r="M239" t="n">
         <v>6.299853976396117</v>
       </c>
       <c r="N239" t="n">
-        <v>0.105298369028816</v>
+        <v>0.08548984486694318</v>
       </c>
       <c r="O239" t="n">
         <v>6.299853976396117</v>
@@ -7415,25 +7415,25 @@
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.05292200637686799</v>
+        <v>0.04971768194890239</v>
       </c>
       <c r="G240" t="n">
         <v>6.336060033731727</v>
       </c>
       <c r="J240" t="n">
-        <v>0.05292200637686799</v>
+        <v>0.04971768194890239</v>
       </c>
       <c r="K240" t="n">
         <v>6.336060033731727</v>
       </c>
       <c r="L240" t="n">
-        <v>0.04945085753818717</v>
+        <v>0.06899235984625925</v>
       </c>
       <c r="M240" t="n">
         <v>6.336060033731727</v>
       </c>
       <c r="N240" t="n">
-        <v>0.1068683164605778</v>
+        <v>0.08892020013496139</v>
       </c>
       <c r="O240" t="n">
         <v>6.336060033731727</v>
@@ -7441,25 +7441,25 @@
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.05652060660315432</v>
+        <v>0.04761491434902071</v>
       </c>
       <c r="G241" t="n">
         <v>6.372266091067337</v>
       </c>
       <c r="J241" t="n">
-        <v>0.05652060660315432</v>
+        <v>0.04761491434902071</v>
       </c>
       <c r="K241" t="n">
         <v>6.372266091067337</v>
       </c>
       <c r="L241" t="n">
-        <v>0.04870184485174266</v>
+        <v>0.0661833920123208</v>
       </c>
       <c r="M241" t="n">
         <v>6.372266091067337</v>
       </c>
       <c r="N241" t="n">
-        <v>0.1055072387830441</v>
+        <v>0.0886757444631267</v>
       </c>
       <c r="O241" t="n">
         <v>6.372266091067337</v>
@@ -7467,25 +7467,25 @@
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.05430834068378351</v>
+        <v>0.04832803404931024</v>
       </c>
       <c r="G242" t="n">
         <v>6.408472148402947</v>
       </c>
       <c r="J242" t="n">
-        <v>0.05430834068378351</v>
+        <v>0.04832803404931024</v>
       </c>
       <c r="K242" t="n">
         <v>6.408472148402947</v>
       </c>
       <c r="L242" t="n">
-        <v>0.04968764808933027</v>
+        <v>0.07134214556378429</v>
       </c>
       <c r="M242" t="n">
         <v>6.408472148402947</v>
       </c>
       <c r="N242" t="n">
-        <v>0.1022301446866536</v>
+        <v>0.08916616142693599</v>
       </c>
       <c r="O242" t="n">
         <v>6.408472148402947</v>
@@ -7493,25 +7493,25 @@
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.05177990949121702</v>
+        <v>0.04697360664380418</v>
       </c>
       <c r="G243" t="n">
         <v>6.444678205738557</v>
       </c>
       <c r="J243" t="n">
-        <v>0.05177990949121702</v>
+        <v>0.04697360664380418</v>
       </c>
       <c r="K243" t="n">
         <v>6.444678205738557</v>
       </c>
       <c r="L243" t="n">
-        <v>0.04777414119357203</v>
+        <v>0.07029543296989828</v>
       </c>
       <c r="M243" t="n">
         <v>6.444678205738557</v>
       </c>
       <c r="N243" t="n">
-        <v>0.1028733105062385</v>
+        <v>0.08720478930662513</v>
       </c>
       <c r="O243" t="n">
         <v>6.444678205738557</v>
@@ -7519,25 +7519,25 @@
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.0515949159589022</v>
+        <v>0.04865529713155867</v>
       </c>
       <c r="G244" t="n">
         <v>6.480884263074166</v>
       </c>
       <c r="J244" t="n">
-        <v>0.0515949159589022</v>
+        <v>0.04865529713155867</v>
       </c>
       <c r="K244" t="n">
         <v>6.480884263074166</v>
       </c>
       <c r="L244" t="n">
-        <v>0.0474160119055697</v>
+        <v>0.06750965209499891</v>
       </c>
       <c r="M244" t="n">
         <v>6.480884263074166</v>
       </c>
       <c r="N244" t="n">
-        <v>0.1071730386069807</v>
+        <v>0.08753927276132785</v>
       </c>
       <c r="O244" t="n">
         <v>6.480884263074166</v>
@@ -7545,25 +7545,25 @@
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.05049497040768657</v>
+        <v>0.0474509701996285</v>
       </c>
       <c r="G245" t="n">
         <v>6.517090320409776</v>
       </c>
       <c r="J245" t="n">
-        <v>0.05049497040768657</v>
+        <v>0.0474509701996285</v>
       </c>
       <c r="K245" t="n">
         <v>6.517090320409776</v>
       </c>
       <c r="L245" t="n">
-        <v>0.04673715738576367</v>
+        <v>0.0666173280782275</v>
       </c>
       <c r="M245" t="n">
         <v>6.517090320409776</v>
       </c>
       <c r="N245" t="n">
-        <v>0.1050632760812439</v>
+        <v>0.08820734682106078</v>
       </c>
       <c r="O245" t="n">
         <v>6.517090320409776</v>
@@ -7571,25 +7571,25 @@
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.0503902311588067</v>
+        <v>0.04746352252130605</v>
       </c>
       <c r="G246" t="n">
         <v>6.553296377745386</v>
       </c>
       <c r="J246" t="n">
-        <v>0.0503902311588067</v>
+        <v>0.04746352252130605</v>
       </c>
       <c r="K246" t="n">
         <v>6.553296377745386</v>
       </c>
       <c r="L246" t="n">
-        <v>0.04535715148960329</v>
+        <v>0.0703368568803709</v>
       </c>
       <c r="M246" t="n">
         <v>6.553296377745386</v>
       </c>
       <c r="N246" t="n">
-        <v>0.1052837565189766</v>
+        <v>0.08160346717467581</v>
       </c>
       <c r="O246" t="n">
         <v>6.553296377745386</v>
@@ -7597,25 +7597,25 @@
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.05027558354581502</v>
+        <v>0.04428271190176975</v>
       </c>
       <c r="G247" t="n">
         <v>6.589502435080996</v>
       </c>
       <c r="J247" t="n">
-        <v>0.05027558354581502</v>
+        <v>0.04428271190176975</v>
       </c>
       <c r="K247" t="n">
         <v>6.589502435080996</v>
       </c>
       <c r="L247" t="n">
-        <v>0.04601381845172178</v>
+        <v>0.06789884876368003</v>
       </c>
       <c r="M247" t="n">
         <v>6.589502435080996</v>
       </c>
       <c r="N247" t="n">
-        <v>0.1029899541298415</v>
+        <v>0.08215289984277717</v>
       </c>
       <c r="O247" t="n">
         <v>6.589502435080996</v>
@@ -7623,25 +7623,25 @@
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.05229076763852402</v>
+        <v>0.04428744654153136</v>
       </c>
       <c r="G248" t="n">
         <v>6.625708492416606</v>
       </c>
       <c r="J248" t="n">
-        <v>0.05229076763852402</v>
+        <v>0.04428744654153136</v>
       </c>
       <c r="K248" t="n">
         <v>6.625708492416606</v>
       </c>
       <c r="L248" t="n">
-        <v>0.04452314958720155</v>
+        <v>0.0694741828902697</v>
       </c>
       <c r="M248" t="n">
         <v>6.625708492416606</v>
       </c>
       <c r="N248" t="n">
-        <v>0.1034800906602442</v>
+        <v>0.07974006574911664</v>
       </c>
       <c r="O248" t="n">
         <v>6.625708492416606</v>
@@ -7649,25 +7649,25 @@
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.05183684328409707</v>
+        <v>0.0444931973622639</v>
       </c>
       <c r="G249" t="n">
         <v>6.661914549752216</v>
       </c>
       <c r="J249" t="n">
-        <v>0.05183684328409707</v>
+        <v>0.0444931973622639</v>
       </c>
       <c r="K249" t="n">
         <v>6.661914549752216</v>
       </c>
       <c r="L249" t="n">
-        <v>0.04396743680867662</v>
+        <v>0.07098880974609013</v>
       </c>
       <c r="M249" t="n">
         <v>6.661914549752216</v>
       </c>
       <c r="N249" t="n">
-        <v>0.09763585682733511</v>
+        <v>0.08427700876468111</v>
       </c>
       <c r="O249" t="n">
         <v>6.661914549752216</v>
@@ -7675,25 +7675,25 @@
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.05030465766841069</v>
+        <v>0.04367141232675909</v>
       </c>
       <c r="G250" t="n">
         <v>6.698120607087826</v>
       </c>
       <c r="J250" t="n">
-        <v>0.05030465766841069</v>
+        <v>0.04367141232675909</v>
       </c>
       <c r="K250" t="n">
         <v>6.698120607087826</v>
       </c>
       <c r="L250" t="n">
-        <v>0.04180419286791142</v>
+        <v>0.07106801539475885</v>
       </c>
       <c r="M250" t="n">
         <v>6.698120607087826</v>
       </c>
       <c r="N250" t="n">
-        <v>0.1021885832042151</v>
+        <v>0.07828994233094497</v>
       </c>
       <c r="O250" t="n">
         <v>6.698120607087826</v>
@@ -7701,25 +7701,25 @@
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.05082078620563294</v>
+        <v>0.04382502205534163</v>
       </c>
       <c r="G251" t="n">
         <v>6.734326664423435</v>
       </c>
       <c r="J251" t="n">
-        <v>0.05082078620563294</v>
+        <v>0.04382502205534163</v>
       </c>
       <c r="K251" t="n">
         <v>6.734326664423435</v>
       </c>
       <c r="L251" t="n">
-        <v>0.04016996806315784</v>
+        <v>0.07134451732239609</v>
       </c>
       <c r="M251" t="n">
         <v>6.734326664423435</v>
       </c>
       <c r="N251" t="n">
-        <v>0.1017553675411405</v>
+        <v>0.08208201708128932</v>
       </c>
       <c r="O251" t="n">
         <v>6.734326664423435</v>
@@ -7727,25 +7727,25 @@
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.05043653012612375</v>
+        <v>0.04211378065189648</v>
       </c>
       <c r="G252" t="n">
         <v>6.770532721759045</v>
       </c>
       <c r="J252" t="n">
-        <v>0.05043653012612375</v>
+        <v>0.04211378065189648</v>
       </c>
       <c r="K252" t="n">
         <v>6.770532721759045</v>
       </c>
       <c r="L252" t="n">
-        <v>0.04063919975446924</v>
+        <v>0.07243049281632825</v>
       </c>
       <c r="M252" t="n">
         <v>6.770532721759045</v>
       </c>
       <c r="N252" t="n">
-        <v>0.09478954320482953</v>
+        <v>0.0785028288200731</v>
       </c>
       <c r="O252" t="n">
         <v>6.770532721759045</v>
@@ -7753,25 +7753,25 @@
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.04693733614821899</v>
+        <v>0.04217021396419791</v>
       </c>
       <c r="G253" t="n">
         <v>6.806738779094655</v>
       </c>
       <c r="J253" t="n">
-        <v>0.04693733614821899</v>
+        <v>0.04217021396419791</v>
       </c>
       <c r="K253" t="n">
         <v>6.806738779094655</v>
       </c>
       <c r="L253" t="n">
-        <v>0.04041410226319711</v>
+        <v>0.0728109444486791</v>
       </c>
       <c r="M253" t="n">
         <v>6.806738779094655</v>
       </c>
       <c r="N253" t="n">
-        <v>0.0980464700161989</v>
+        <v>0.07989531288109934</v>
       </c>
       <c r="O253" t="n">
         <v>6.806738779094655</v>
@@ -7779,25 +7779,25 @@
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.0478507029981778</v>
+        <v>0.04047282997793706</v>
       </c>
       <c r="G254" t="n">
         <v>6.842944836430265</v>
       </c>
       <c r="J254" t="n">
-        <v>0.0478507029981778</v>
+        <v>0.04047282997793706</v>
       </c>
       <c r="K254" t="n">
         <v>6.842944836430265</v>
       </c>
       <c r="L254" t="n">
-        <v>0.04025108431208733</v>
+        <v>0.07357268435742068</v>
       </c>
       <c r="M254" t="n">
         <v>6.842944836430265</v>
       </c>
       <c r="N254" t="n">
-        <v>0.09969984841997473</v>
+        <v>0.07989339858624195</v>
       </c>
       <c r="O254" t="n">
         <v>6.842944836430265</v>
@@ -7805,25 +7805,25 @@
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.04771714153046344</v>
+        <v>0.03911256550023966</v>
       </c>
       <c r="G255" t="n">
         <v>6.879150893765875</v>
       </c>
       <c r="J255" t="n">
-        <v>0.04771714153046344</v>
+        <v>0.03911256550023966</v>
       </c>
       <c r="K255" t="n">
         <v>6.879150893765875</v>
       </c>
       <c r="L255" t="n">
-        <v>0.03881575805656902</v>
+        <v>0.07377063091451892</v>
       </c>
       <c r="M255" t="n">
         <v>6.879150893765875</v>
       </c>
       <c r="N255" t="n">
-        <v>0.09620764756920153</v>
+        <v>0.07806498688783954</v>
       </c>
       <c r="O255" t="n">
         <v>6.879150893765875</v>
@@ -7831,25 +7831,25 @@
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.04760822748553827</v>
+        <v>0.03841898206552057</v>
       </c>
       <c r="G256" t="n">
         <v>6.915356951101485</v>
       </c>
       <c r="J256" t="n">
-        <v>0.04760822748553827</v>
+        <v>0.03841898206552057</v>
       </c>
       <c r="K256" t="n">
         <v>6.915356951101485</v>
       </c>
       <c r="L256" t="n">
-        <v>0.03780161403359251</v>
+        <v>0.07453895781941437</v>
       </c>
       <c r="M256" t="n">
         <v>6.915356951101485</v>
       </c>
       <c r="N256" t="n">
-        <v>0.09485756857865972</v>
+        <v>0.07608499989367341</v>
       </c>
       <c r="O256" t="n">
         <v>6.915356951101485</v>
@@ -7857,25 +7857,25 @@
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.04479257953744735</v>
+        <v>0.03631901365020779</v>
       </c>
       <c r="G257" t="n">
         <v>6.951563008437095</v>
       </c>
       <c r="J257" t="n">
-        <v>0.04479257953744735</v>
+        <v>0.03631901365020779</v>
       </c>
       <c r="K257" t="n">
         <v>6.951563008437095</v>
       </c>
       <c r="L257" t="n">
-        <v>0.03592488566539666</v>
+        <v>0.07525602845081741</v>
       </c>
       <c r="M257" t="n">
         <v>6.951563008437095</v>
       </c>
       <c r="N257" t="n">
-        <v>0.09691526166392926</v>
+        <v>0.07780501095331996</v>
       </c>
       <c r="O257" t="n">
         <v>6.951563008437095</v>
@@ -7883,25 +7883,25 @@
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.04642427957417672</v>
+        <v>0.03590615522215542</v>
       </c>
       <c r="G258" t="n">
         <v>6.987769065772704</v>
       </c>
       <c r="J258" t="n">
-        <v>0.04642427957417672</v>
+        <v>0.03590615522215542</v>
       </c>
       <c r="K258" t="n">
         <v>6.987769065772704</v>
       </c>
       <c r="L258" t="n">
-        <v>0.03372269120644959</v>
+        <v>0.07444798503380549</v>
       </c>
       <c r="M258" t="n">
         <v>6.987769065772704</v>
       </c>
       <c r="N258" t="n">
-        <v>0.09647407707341508</v>
+        <v>0.07320516850264763</v>
       </c>
       <c r="O258" t="n">
         <v>6.987769065772704</v>
@@ -7909,25 +7909,25 @@
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.04473853669926275</v>
+        <v>0.03492147835452532</v>
       </c>
       <c r="G259" t="n">
         <v>7.023975123108314</v>
       </c>
       <c r="J259" t="n">
-        <v>0.04473853669926275</v>
+        <v>0.03492147835452532</v>
       </c>
       <c r="K259" t="n">
         <v>7.023975123108314</v>
       </c>
       <c r="L259" t="n">
-        <v>0.0340985176882047</v>
+        <v>0.07079845052828092</v>
       </c>
       <c r="M259" t="n">
         <v>7.023975123108314</v>
       </c>
       <c r="N259" t="n">
-        <v>0.09816800905899353</v>
+        <v>0.0769720799276903</v>
       </c>
       <c r="O259" t="n">
         <v>7.023975123108314</v>
@@ -7935,25 +7935,25 @@
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.04600257747657743</v>
+        <v>0.03412967036691698</v>
       </c>
       <c r="G260" t="n">
         <v>7.060181180443924</v>
       </c>
       <c r="J260" t="n">
-        <v>0.04600257747657743</v>
+        <v>0.03412967036691698</v>
       </c>
       <c r="K260" t="n">
         <v>7.060181180443924</v>
       </c>
       <c r="L260" t="n">
-        <v>0.03326372463635133</v>
+        <v>0.07554561018484371</v>
       </c>
       <c r="M260" t="n">
         <v>7.060181180443924</v>
       </c>
       <c r="N260" t="n">
-        <v>0.09256669041962298</v>
+        <v>0.0746808619734006</v>
       </c>
       <c r="O260" t="n">
         <v>7.060181180443924</v>
@@ -7961,25 +7961,25 @@
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.04488173706966368</v>
+        <v>0.03128738631979461</v>
       </c>
       <c r="G261" t="n">
         <v>7.096387237779534</v>
       </c>
       <c r="J261" t="n">
-        <v>0.04488173706966368</v>
+        <v>0.03128738631979461</v>
       </c>
       <c r="K261" t="n">
         <v>7.096387237779534</v>
       </c>
       <c r="L261" t="n">
-        <v>0.03074783829836734</v>
+        <v>0.07526150219471436</v>
       </c>
       <c r="M261" t="n">
         <v>7.096387237779534</v>
       </c>
       <c r="N261" t="n">
-        <v>0.09059208980100802</v>
+        <v>0.07601120173423224</v>
       </c>
       <c r="O261" t="n">
         <v>7.096387237779534</v>
@@ -7987,25 +7987,25 @@
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.04401832960777136</v>
+        <v>0.03137803060026661</v>
       </c>
       <c r="G262" t="n">
         <v>7.132593295115144</v>
       </c>
       <c r="J262" t="n">
-        <v>0.04401832960777136</v>
+        <v>0.03137803060026661</v>
       </c>
       <c r="K262" t="n">
         <v>7.132593295115144</v>
       </c>
       <c r="L262" t="n">
-        <v>0.03090122208802577</v>
+        <v>0.07649411276522468</v>
       </c>
       <c r="M262" t="n">
         <v>7.132593295115144</v>
       </c>
       <c r="N262" t="n">
-        <v>0.09631230326467247</v>
+        <v>0.06924771449302303</v>
       </c>
       <c r="O262" t="n">
         <v>7.132593295115144</v>
@@ -8013,25 +8013,25 @@
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.04427460074092746</v>
+        <v>0.03005201822511094</v>
       </c>
       <c r="G263" t="n">
         <v>7.168799352450754</v>
       </c>
       <c r="J263" t="n">
-        <v>0.04427460074092746</v>
+        <v>0.03005201822511094</v>
       </c>
       <c r="K263" t="n">
         <v>7.168799352450754</v>
       </c>
       <c r="L263" t="n">
-        <v>0.02970320415149442</v>
+        <v>0.07506795393810463</v>
       </c>
       <c r="M263" t="n">
         <v>7.168799352450754</v>
       </c>
       <c r="N263" t="n">
-        <v>0.09383466712429919</v>
+        <v>0.07335747473036956</v>
       </c>
       <c r="O263" t="n">
         <v>7.168799352450754</v>
@@ -8039,25 +8039,25 @@
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.04129037944754302</v>
+        <v>0.02885320037526831</v>
       </c>
       <c r="G264" t="n">
         <v>7.205005409786363</v>
       </c>
       <c r="J264" t="n">
-        <v>0.04129037944754302</v>
+        <v>0.02885320037526831</v>
       </c>
       <c r="K264" t="n">
         <v>7.205005409786363</v>
       </c>
       <c r="L264" t="n">
-        <v>0.02608396088401991</v>
+        <v>0.07905652317007571</v>
       </c>
       <c r="M264" t="n">
         <v>7.205005409786363</v>
       </c>
       <c r="N264" t="n">
-        <v>0.09161517825835008</v>
+        <v>0.06791511562716607</v>
       </c>
       <c r="O264" t="n">
         <v>7.205005409786363</v>
